--- a/data/TF-IDF/result_all.xlsx
+++ b/data/TF-IDF/result_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0009812254059306793</v>
+        <v>0.0009857300746154275</v>
       </c>
       <c r="D2" t="n">
         <v>0.5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002297619599249894</v>
+        <v>0.002308167649673015</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001843173048464934</v>
+        <v>0.001851634798295103</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0005066085021367894</v>
+        <v>0.0005089342709572963</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.002004624618464864</v>
+        <v>0.0020138275698855</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.004074397091965208</v>
+        <v>0.004093102079502701</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003239660312539337</v>
+        <v>0.003254533140200455</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.002998785252857295</v>
+        <v>0.003012552256788485</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -584,14 +584,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001358885285832382</v>
+        <v>0.0004424101236758077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -600,14 +600,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>average atomic volume</t>
+          <t>bottleneck</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001008402151650658</v>
+        <v>0.0004547220583226896</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -616,14 +616,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>volume mo6 polyhedron</t>
+          <t>minimum bt2 and bt1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0006465011045720706</v>
+        <v>0.01197324988552426</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -632,11 +632,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>volume xo4 polyhedron</t>
+          <t>average straight-line path width</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0006344832096084525</v>
+        <v>0.0004408506866665528</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>volume na1o6 polyhedron</t>
+          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0004846622619859742</v>
+        <v>0.001445496167104675</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -664,14 +664,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>volume na2o8 polyhedron</t>
+          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0004846622619859742</v>
+        <v>0.001431316570787742</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -680,14 +680,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>volume na3o5 polyhedron</t>
+          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0004846622619859742</v>
+        <v>0.002706852462183019</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -696,11 +696,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>bt1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0004403883622613398</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -712,11 +712,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bottleneck</t>
+          <t>bt2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0004526440328376809</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -728,14 +728,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>minimum bt2 and bt1</t>
+          <t>min_bt</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01191853356388314</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -744,11 +744,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>average straight-line path width</t>
+          <t>conduction threshold</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0004388360516929255</v>
+        <v>0.0009097359817060786</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
+          <t>volume diffusion pathways</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001438890422301342</v>
+        <v>0.001329158589547953</v>
       </c>
       <c r="D21" t="n">
         <v>0.5</v>
@@ -776,14 +776,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
+          <t>dimensionality diffusion pathways</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001424775625045669</v>
+        <v>0.0008948576992959364</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -792,14 +792,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002694482469793991</v>
+        <v>0.0006911115692283497</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -808,11 +808,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bt1</t>
+          <t>average shortest li-li separation distance</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.0004166309168426576</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bt2</t>
+          <t>average shortest li-anion separation distance</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.0004166309168426576</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>min_bt</t>
+          <t>average shortest anion-anion separation distance</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0004166309168426576</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>conduction threshold</t>
+          <t>jump distance</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0009055785969476001</v>
+        <v>0.0004627799706183354</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>volume diffusion pathways</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001323084493576258</v>
+        <v>0.0007219496244341089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -888,11 +888,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dimensionality diffusion pathways</t>
+          <t>average neighbor count</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0008907683065106986</v>
+        <v>0.0003351526163890713</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -904,11 +904,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>average li-li bonds per</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0006879532719178159</v>
+        <v>0.0005946159880455006</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>average shortest li-li separation distance</t>
+          <t>anion framework coordination</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0004147269633238088</v>
+        <v>0.001133291711701337</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -936,11 +936,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>average shortest li-anion separation distance</t>
+          <t>average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0004147269633238088</v>
+        <v>0.0003039137352993998</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -952,11 +952,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>average shortest anion-anion separation distance</t>
+          <t>standard deviation neighbor count</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0004147269633238088</v>
+        <v>0.0002772388563961365</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -968,11 +968,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jump distance</t>
+          <t>ratio average neighbor count average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0004606651214367413</v>
+        <v>0.0004726382119542091</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -984,11 +984,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>pathway</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.000718650400895228</v>
+        <v>0.0004662520022254771</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>average neighbor count</t>
+          <t>pathways</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0003336210089698209</v>
+        <v>0.000530063406420791</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1016,11 +1016,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>average li-li bonds per</t>
+          <t>polyhedron</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0005918986640135193</v>
+        <v>9.553809781950385e-05</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>anion framework coordination</t>
+          <t>o octahedra</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001128112703962959</v>
+        <v>0.002166935690605725</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>average sublattice neighbor count</t>
+          <t>ions channel</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.000302524885834903</v>
+        <v>0.002260653283738477</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>standard deviation neighbor count</t>
+          <t>ion pathways</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0002759719079416214</v>
+        <v>0.003794310023538871</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ratio average neighbor count average sublattice neighbor count</t>
+          <t>vo polyhedron</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0004704783117873849</v>
+        <v>7.816994658251535e-05</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1096,11 +1096,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>channel radius</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0004641212862742105</v>
+        <v>0.0005684835986566309</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>diffusion area</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0005276410799753224</v>
+        <v>0.001676153040201592</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>polyhedron</t>
+          <t>diffusion path</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9.510150012553998e-05</v>
+        <v>0.00125807137929855</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -1144,11 +1144,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>o octahedra</t>
+          <t>ionic pathways</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.002157033053363838</v>
+        <v>0.002486759873907118</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ions channel</t>
+          <t>migration path</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.002250322368291565</v>
+        <v>0.0007787912804611781</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ion pathways</t>
+          <t>migration paths</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.003776970480003152</v>
+        <v>0.0007036652214433035</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vo polyhedron</t>
+          <t>anion distances</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7.781271926488878e-05</v>
+        <v>0.0006004016812429595</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1208,11 +1208,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>channel radius</t>
+          <t>bottleneck area</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.000565885696522357</v>
+        <v>0.000857369757369981</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1224,11 +1224,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>diffusion area</t>
+          <t>bottleneck size</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001668493221042693</v>
+        <v>0.001420381081294884</v>
       </c>
       <c r="D50" t="n">
         <v>0.5</v>
@@ -1240,14 +1240,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>diffusion path</t>
+          <t>channel section</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.001252322143385549</v>
+        <v>0.0005337039477705092</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1256,11 +1256,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ionic pathways</t>
+          <t>lithium pathway</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.002475395678354042</v>
+        <v>0.003215779343802573</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>migration path</t>
+          <t>na coordination</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0007752322973446112</v>
+        <v>0.004110416125202327</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1288,14 +1288,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>migration paths</t>
+          <t>al coordinations</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0007004495554418185</v>
+        <v>0.001811590788204502</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>anion distances</t>
+          <t>bottleneck width</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0005976579172842302</v>
+        <v>0.0004466228501727662</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bottleneck area</t>
+          <t>diffusion length</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0008534516800009999</v>
+        <v>0.001275047161613984</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
@@ -1336,14 +1336,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bottleneck size</t>
+          <t>mobility pathway</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.00141389010943343</v>
+        <v>0.0007987545138137746</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>channel section</t>
+          <t>coordinated anion</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0005312649844859748</v>
+        <v>0.000460662872352205</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1368,14 +1368,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lithium pathway</t>
+          <t>diffusion channel</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.003201083616361428</v>
+        <v>0.00126734937383086</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
@@ -1384,14 +1384,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>na coordination</t>
+          <t>diffusion pathway</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.004091632014544339</v>
+        <v>0.001279270313105694</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
@@ -1400,14 +1400,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>al coordinations</t>
+          <t>ionic coordinates</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.001803312034716752</v>
+        <v>0.002405739433481142</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bottleneck width</t>
+          <t>m bottleneck site</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0004445818371014636</v>
+        <v>0.002020290043919076</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>diffusion length</t>
+          <t>migration channel</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.001269220348403745</v>
+        <v>0.0007880692749934876</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mobility pathway</t>
+          <t>polyhedron volume</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0007951043011056131</v>
+        <v>0.0007303309180283305</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1464,11 +1464,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>coordinated anion</t>
+          <t>polyhedral mo6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0004585576980567766</v>
+        <v>0.0003395085401516958</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1480,14 +1480,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>diffusion channel</t>
+          <t>polyhedral xo4</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001261557738591204</v>
+        <v>0.0003213989389923606</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>diffusion pathway</t>
+          <t>polyhedral na1o6</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001273424200597639</v>
+        <v>9.563580701538489e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ionic coordinates</t>
+          <t>polyhedral na2o8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.002394745491662034</v>
+        <v>9.563580701538489e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1528,14 +1528,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>m bottleneck site</t>
+          <t>polyhedral na3o5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.002011057559764119</v>
+        <v>9.563580701538489e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>migration channel</t>
+          <t>mean jump distance</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0007844678925502661</v>
+        <v>0.0004429852015150521</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>polyhedron volume</t>
+          <t>atomic coordinates</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0007269933929789612</v>
+        <v>0.000570484286114187</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1576,14 +1576,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>polyhedral mo6</t>
+          <t>diffusion distance</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0003379570266812128</v>
+        <v>0.00139170009660713</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>polyhedral xo4</t>
+          <t>migration channels</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0003199301842357858</v>
+        <v>0.0009618381228685643</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
@@ -1608,14 +1608,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>polyhedral na1o6</t>
+          <t>conducting pathway</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9.519876280206825e-05</v>
+        <v>0.001141548573057811</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
@@ -1624,14 +1624,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>polyhedral na2o8</t>
+          <t>diffusion channels</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.519876280206825e-05</v>
+        <v>0.001441118221705936</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>polyhedral na3o5</t>
+          <t>diffusion pathways</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9.519876280206825e-05</v>
+        <v>0.001311176015203351</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77">
@@ -1656,11 +1656,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>mean jump distance</t>
+          <t>bottleneck geometry</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0004409608120635582</v>
+        <v>0.0003998977319705684</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1672,14 +1672,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>atomic coordinates</t>
+          <t>conduction pathways</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.000567877241077236</v>
+        <v>0.001099513962226437</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
@@ -1688,14 +1688,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>diffusion distance</t>
+          <t>transport pathway</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.001385340193419442</v>
+        <v>0.0009252220766417165</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1704,14 +1704,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>migration channels</t>
+          <t>na diffusion channels</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0009574426375491441</v>
+        <v>0.003460373023127473</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1720,11 +1720,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>conducting pathway</t>
+          <t>bottleneck m positions</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.001136331832449406</v>
+        <v>0.00170444828238757</v>
       </c>
       <c r="D81" t="n">
         <v>0.5</v>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>diffusion channels</t>
+          <t>ion conduction pathway</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.001434532483590082</v>
+        <v>0.00306459105363817</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1752,14 +1752,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>diffusion pathways</t>
+          <t>coordination polyhedron</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.001305184097448195</v>
+        <v>0.0004087438611268063</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bottleneck geometry</t>
+          <t>migration coordinate</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0003980702471076232</v>
+        <v>0.000662910466690502</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1784,14 +1784,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>conduction pathways</t>
+          <t>zr + ion conducting pathway</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001094489314768037</v>
+        <v>0.00219869388508842</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>transport pathway</t>
+          <t>sodium oxygen interatomic distance</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0009209939222793657</v>
+        <v>0.001923134926985153</v>
       </c>
       <c r="D86" t="n">
         <v>0.5</v>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>na diffusion channels</t>
+          <t>dimensional atomic migration channels</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.003444559531791205</v>
+        <v>0.0009104245416282061</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1832,14 +1832,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bottleneck m positions</t>
+          <t>general structure</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.001696659157352058</v>
+        <v>0.003112969082825377</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ion conduction pathway</t>
+          <t>lattice parameters</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.003050586238621981</v>
+        <v>0.002160540600263659</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1864,14 +1864,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>coordination polyhedron</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.000406875950510384</v>
+        <v>0.03073317278070994</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1880,14 +1880,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>migration coordinate</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0006598810450496359</v>
+        <v>0.0124906224377215</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1896,11 +1896,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>zr + ion conducting pathway</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.002188646116691611</v>
+        <v>0.004899679451037271</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1912,11 +1912,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sodium oxygen interatomic distance</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.001914346430108343</v>
+        <v>0.004391082981582329</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1928,14 +1928,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dimensional atomic migration channels</t>
+          <t>d</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0009062640102331395</v>
+        <v>0.001788768299225577</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95">
@@ -1944,14 +1944,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>general structure</t>
+          <t>a/c</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.003098743185995088</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1960,11 +1960,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>lattice parameters</t>
+          <t>lattice parameter a</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.002150667187820672</v>
+        <v>0.01125334138070249</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1976,11 +1976,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>lattice parameter c</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0305927258525159</v>
+        <v>0.005172491266373013</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1992,11 +1992,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>lattice parameter v</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.01243354178532265</v>
+        <v>0.002642176937478271</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2008,14 +2008,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>packing fraction sublattice</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.00487728850126636</v>
+        <v>0.0003011674242888297</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2024,14 +2024,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>packing fraction full crystal</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.004371016256919411</v>
+        <v>0.001054815187755618</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
@@ -2040,14 +2040,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>structure disorder</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.001780593841786064</v>
+        <v>0.002900644055285885</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>a/c</t>
+          <t>configurational entropy na+</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.0001065012513025654</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2072,14 +2072,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lattice parameter a</t>
+          <t>configurational entropy na+ 6b site</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.01120191495492746</v>
+        <v>0.0005649033701903714</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2088,14 +2088,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>lattice parameter c</t>
+          <t>configurational entropy na+ 18e site</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.005148853599196372</v>
+        <v>0.0005393800968198916</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2104,14 +2104,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lattice parameter v</t>
+          <t>configurational entropy na+ 36f site</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.002630102504510944</v>
+        <v>0.0005155779514640215</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2120,14 +2120,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>packing fraction sublattice</t>
+          <t>configurational entropy cationic m site</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0002997911251375743</v>
+        <v>0.001260845620802659</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -2136,14 +2136,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>packing fraction full crystal</t>
+          <t>configurational entropy cationic x site</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.001049994808356792</v>
+        <v>0.001937100409961637</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2152,14 +2152,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>structure disorder</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.002887388458466902</v>
+        <v>2.460658295174684e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>configurational entropy na+</t>
+          <t>lattice distortion</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.0001060145533068526</v>
+        <v>0.001323463838498493</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110">
@@ -2184,11 +2184,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 6b site</t>
+          <t>configurate entropy</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0005623218292724907</v>
+        <v>0.0001421245233891093</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2200,14 +2200,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 18e site</t>
+          <t>configuration entropy na 6b</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0005369151942122797</v>
+        <v>0.002136070768422065</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 36f site</t>
+          <t>configuration entropy na 18e</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0005132218218172592</v>
+        <v>0.002104166676708965</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2232,14 +2232,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>configurational entropy cationic m site</t>
+          <t>configuration entropy na 36f</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.001255083706937398</v>
+        <v>0.002074413995014127</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>configurational entropy cationic x site</t>
+          <t>configuration entropy na all</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.001928248092495954</v>
+        <v>0.002834882149106796</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2264,14 +2264,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>configuration entropy m</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2.449413380718295e-06</v>
+        <v>0.001382178474702697</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>lattice distortion</t>
+          <t>configuration entropy x</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.001317415766858794</v>
+        <v>0.00250926978996766</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -2296,14 +2296,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>configurate entropy</t>
+          <t>c axis</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0001414750312955507</v>
+        <v>0.006756495714937387</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2312,14 +2312,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>configuration entropy na 6b</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.002126309180187404</v>
+        <v>0.0002842490467782187</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2328,14 +2328,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>configuration entropy na 18e</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.002094550886362141</v>
+        <v>0.0005539660761405747</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2344,14 +2344,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>configuration entropy na 36f</t>
+          <t>symmetry</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.002064934170868365</v>
+        <v>0.001137238343274639</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>configuration entropy na all</t>
+          <t>expansion</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.002821927076343073</v>
+        <v>0.0009550446629658615</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
@@ -2376,14 +2376,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>configuration entropy m</t>
+          <t>distortion</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.001375862084189649</v>
+        <v>0.000514719998049866</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2392,14 +2392,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>configuration entropy x</t>
+          <t>m skeleton</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.002497802726787243</v>
+        <v>0.001911287620335405</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>c axis</t>
+          <t>a / c ratio</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.006725619336657473</v>
+        <v>0.01119594703092507</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2424,11 +2424,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>entropy</t>
+          <t>axis length</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0002829500625911014</v>
+        <v>0.0007400873456976665</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2440,14 +2440,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>c parameter</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0005514345173499221</v>
+        <v>0.006692633060085959</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>symmetry</t>
+          <t>cell volume</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.001132041299901439</v>
+        <v>0.002806169547344896</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2472,14 +2472,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>expansion</t>
+          <t>parameter a</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0009506802229466438</v>
+        <v>0.01581390823158018</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -2488,14 +2488,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>distortion</t>
+          <t>parameter c</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0005123677891477144</v>
+        <v>0.006692633060085959</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2504,14 +2504,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>m skeleton</t>
+          <t>ion mobility</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.001902553264234694</v>
+        <v>0.004094906833029511</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2520,11 +2520,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>a / c ratio</t>
+          <t>a parameter</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.01114478289047214</v>
+        <v>0.01581390823158018</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2536,14 +2536,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>axis length</t>
+          <t>c parameters</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0007367052349393604</v>
+        <v>0.007339747979650847</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>c parameter</t>
+          <t>hopping rate</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.006662048526509623</v>
+        <v>0.001850544391812547</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>cell volume</t>
+          <t>ion dynamics</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.00279334568774119</v>
+        <v>0.003761978171946652</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>parameter a</t>
+          <t>lattice size</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.01574164056010625</v>
+        <v>0.0022591238916071</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>parameter c</t>
+          <t>diffusion</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.006662048526509623</v>
+        <v>0.002092288623985911</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -2616,11 +2616,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ion mobility</t>
+          <t>na diffusion</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.004076193597983999</v>
+        <v>0.004795585624978228</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2632,11 +2632,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>a parameter</t>
+          <t>ion migration</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.01574164056010625</v>
+        <v>0.00409614253348406</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>c parameters</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.007306206208197059</v>
+        <v>0.0003903429714102567</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2664,14 +2664,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>hopping rate</t>
+          <t>hopping rates</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.001842087625009742</v>
+        <v>0.0007551186026880714</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2680,11 +2680,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ion dynamics</t>
+          <t>ion diffusion</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.003744786381110316</v>
+        <v>0.004575422632321431</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2696,14 +2696,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>lattice size</t>
+          <t>volume change</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.002248799965299526</v>
+        <v>0.001391599066196724</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143">
@@ -2712,14 +2712,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>diffusion</t>
+          <t>volume effect</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.002082727114921068</v>
+        <v>0.001461672458645255</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>na diffusion</t>
+          <t>cell parameter</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.004773670371557259</v>
+        <v>0.002570929519451527</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2744,14 +2744,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ion migration</t>
+          <t>jump distances</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.004077423651435087</v>
+        <v>0.0004771320035728433</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2760,14 +2760,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>lattice strain</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.0003885591506616513</v>
+        <v>0.001178628110580388</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147">
@@ -2776,14 +2776,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hopping rates</t>
+          <t>lattice stress</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.0007516678008809671</v>
+        <v>0.001227653432799594</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148">
@@ -2792,14 +2792,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ion diffusion</t>
+          <t>lattice volume</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.004554513497476024</v>
+        <v>0.001748665708592139</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>volume change</t>
+          <t>lower symmetry</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.001385239624705942</v>
+        <v>0.001491555506497935</v>
       </c>
       <c r="D149" t="n">
         <v>0.5</v>
@@ -2824,14 +2824,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>volume effect</t>
+          <t>migration rate</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001454992790122016</v>
+        <v>0.00214402874513447</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -2840,14 +2840,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>cell parameter</t>
+          <t>volume changes</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.002559180678673298</v>
+        <v>0.001269240356267941</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152">
@@ -2856,14 +2856,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>jump distances</t>
+          <t>cell parameters</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.0004749515673151544</v>
+        <v>0.003218044439016415</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -2872,14 +2872,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>lattice strain</t>
+          <t>ion arrangement</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.001173241920915061</v>
+        <v>0.003669568204636093</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2888,14 +2888,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>lattice stress</t>
+          <t>packing mode</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.001222043203268337</v>
+        <v>0.0004316428321367195</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>lattice volume</t>
+          <t>packing fraciton</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.001740674515201128</v>
+        <v>7.606463371227413e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -2920,14 +2920,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>lower symmetry</t>
+          <t>ionic diffusion</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.001484739276015867</v>
+        <v>0.003267872482689678</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>migration rate</t>
+          <t>haven ratio</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.002134230789896901</v>
+        <v>0.0007884513437901348</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>volume changes</t>
+          <t>jump frequency</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.001263440079464447</v>
+        <v>0.001359420185450435</v>
       </c>
       <c r="D158" t="n">
         <v>0.5</v>
@@ -2968,14 +2968,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>cell parameters</t>
+          <t>attempt frequency</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.003203338360360734</v>
+        <v>0.001343327971767887</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160">
@@ -2984,14 +2984,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ion arrangement</t>
+          <t>concerted migration</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.003652798716310984</v>
+        <v>0.0006075157805257059</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>packing mode</t>
+          <t>percentage correlated jumps</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.0004296702759583145</v>
+        <v>0.0002144547061339502</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3016,14 +3016,14 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>packing fraciton</t>
+          <t>all jump events</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7.571702742296191e-05</v>
+        <v>0.001162642658050381</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163">
@@ -3032,14 +3032,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ionic diffusion</t>
+          <t>bending strength</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.003252938695826915</v>
+        <v>0.000536880687523946</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3048,14 +3048,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>haven ratio</t>
+          <t>cation migration</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0007848482153381551</v>
+        <v>0.001342761936654155</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165">
@@ -3064,14 +3064,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>jump frequency</t>
+          <t>ion hopping rate</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.001353207797600544</v>
+        <v>0.003586548474760682</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3080,11 +3080,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>attempt frequency</t>
+          <t>lattice constant</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.001337189123412134</v>
+        <v>0.001746033049348201</v>
       </c>
       <c r="D166" t="n">
         <v>0.5</v>
@@ -3096,14 +3096,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>concerted migration</t>
+          <t>lattice disorder</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0006047395059831115</v>
+        <v>0.001283023206846274</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168">
@@ -3112,14 +3112,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>percentage correlated jumps</t>
+          <t>sodium diffusion</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.0002134746737458794</v>
+        <v>0.003505185517375712</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3128,14 +3128,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>all jump events</t>
+          <t>sodium migration</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.001157329519993479</v>
+        <v>0.003025905418538341</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -3144,14 +3144,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>bending strength</t>
+          <t>unit cell volume</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.0005344272069182346</v>
+        <v>0.002449126469476327</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3160,11 +3160,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>cation migration</t>
+          <t>volume expansion</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.001336625675011253</v>
+        <v>0.001160084200601509</v>
       </c>
       <c r="D171" t="n">
         <v>0.5</v>
@@ -3176,14 +3176,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ion hopping rate</t>
+          <t>volume variation</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.003570158376683489</v>
+        <v>0.001129405820667312</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173">
@@ -3192,11 +3192,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>lattice constant</t>
+          <t>lattice dynamics</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.001738053886895435</v>
+        <v>0.001298803691091737</v>
       </c>
       <c r="D173" t="n">
         <v>0.5</v>
@@ -3208,11 +3208,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>lattice disorder</t>
+          <t>lattice softness</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.001277159944062149</v>
+        <v>0.001071398977786126</v>
       </c>
       <c r="D174" t="n">
         <v>0.5</v>
@@ -3224,14 +3224,14 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sodium diffusion</t>
+          <t>lattice symmetry</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.003489167238294073</v>
+        <v>0.00163472301111088</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176">
@@ -3240,14 +3240,14 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sodium migration</t>
+          <t>debye frequency</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.003012077392253136</v>
+        <v>0.001390966909281291</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="177">
@@ -3256,14 +3256,14 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>unit cell volume</t>
+          <t>average phonon band center</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.002437934254085778</v>
+        <v>0.0006176352894036802</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>volume expansion</t>
+          <t>dielectric constant</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.001154782754389513</v>
+        <v>0.00106168734777653</v>
       </c>
       <c r="D178" t="n">
         <v>0.5</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>volume variation</t>
+          <t>geometry factor</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.001124244570986747</v>
+        <v>0.0005712414410057666</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3304,11 +3304,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>lattice dynamics</t>
+          <t>lattice expansion</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001292868313379762</v>
+        <v>0.001543626170956491</v>
       </c>
       <c r="D180" t="n">
         <v>0.5</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>lattice softness</t>
+          <t>anionic framework</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.001066502812447976</v>
+        <v>0.001225489807466955</v>
       </c>
       <c r="D181" t="n">
         <v>0.5</v>
@@ -3336,11 +3336,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>lattice symmetry</t>
+          <t>crystal parameter</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.001627252522235656</v>
+        <v>0.001573759037695774</v>
       </c>
       <c r="D182" t="n">
         <v>0.5</v>
@@ -3352,11 +3352,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>debye frequency</t>
+          <t>hopping frequency</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.001384610356672094</v>
+        <v>0.001515575859279936</v>
       </c>
       <c r="D183" t="n">
         <v>0.5</v>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>average phonon band center</t>
+          <t>hopping mechanism</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0006148127699143995</v>
+        <v>0.0009230472999397945</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3384,11 +3384,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>dielectric constant</t>
+          <t>lattice constants</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.001056835563427363</v>
+        <v>0.00125615864299365</v>
       </c>
       <c r="D185" t="n">
         <v>0.5</v>
@@ -3400,14 +3400,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>geometry factor</t>
+          <t>thermal expansion</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.0005686309358614114</v>
+        <v>0.00153430714004705</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187">
@@ -3416,14 +3416,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>lattice expansion</t>
+          <t>disorder character</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.001536571983758258</v>
+        <v>0.0003747288721481073</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3432,11 +3432,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>anionic framework</t>
+          <t>dynamic parameters</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.001219889465444999</v>
+        <v>0.001266394755379027</v>
       </c>
       <c r="D188" t="n">
         <v>0.5</v>
@@ -3448,14 +3448,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>crystal parameter</t>
+          <t>geometrical factor</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.001566567146896243</v>
+        <v>0.0004690103210791399</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3464,14 +3464,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>hopping frequency</t>
+          <t>ion diffusion rate</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.001508649858655148</v>
+        <v>0.004101724776200212</v>
       </c>
       <c r="D190" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -3480,14 +3480,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>hopping mechanism</t>
+          <t>compressive strain</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.0009188290840471707</v>
+        <v>0.000133496079815996</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3496,14 +3496,14 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>lattice constants</t>
+          <t>c lattice parameter</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.001250418148057065</v>
+        <v>0.005172491266373013</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -3512,11 +3512,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>thermal expansion</t>
+          <t>geometry parameters</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.001527295539706813</v>
+        <v>0.001266973463599322</v>
       </c>
       <c r="D193" t="n">
         <v>0.5</v>
@@ -3528,14 +3528,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>disorder character</t>
+          <t>lattice deformation</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.0003730164059678549</v>
+        <v>0.001141489914139747</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
@@ -3544,14 +3544,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>dynamic parameters</t>
+          <t>mechanical strength</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.001260607482631657</v>
+        <v>0.0006822716538813077</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3560,14 +3560,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>geometrical factor</t>
+          <t>monoclinic symmetry</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.0004668669999402234</v>
+        <v>0.001258771313066487</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ion diffusion rate</t>
+          <t>structural disorder</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.004082980383968887</v>
+        <v>0.001301908885043827</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
@@ -3592,14 +3592,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>compressive strain</t>
+          <t>carrier hopping rate</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.0001328860186788045</v>
+        <v>0.001379350817990449</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="199">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>c lattice parameter</t>
+          <t>crystal lattice size</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.005148853599196372</v>
+        <v>0.002257040725385109</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3624,14 +3624,14 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>geometry parameters</t>
+          <t>lattice parameters a</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.001261183546224518</v>
+        <v>0.01168475132707909</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -3640,11 +3640,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>lattice deformation</t>
+          <t>rhombohedral lattice</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.00113627344159559</v>
+        <v>0.001924477882553574</v>
       </c>
       <c r="D201" t="n">
         <v>0.5</v>
@@ -3656,14 +3656,14 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>mechanical strength</t>
+          <t>structural expansion</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.0006791537539278853</v>
+        <v>0.001562511849154044</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203">
@@ -3672,14 +3672,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>monoclinic symmetry</t>
+          <t>unit cell parameters</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.001253018878539782</v>
+        <v>0.002723709730590674</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>structural disorder</t>
+          <t>diffusion coefficient</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.00129595931696644</v>
+        <v>0.001297090758069389</v>
       </c>
       <c r="D204" t="n">
         <v>0.5</v>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>carrier hopping rate</t>
+          <t>high bending strength</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.001373047349530782</v>
+        <v>0.002438620996856743</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -3720,11 +3720,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>crystal lattice size</t>
+          <t>lithium ion migration</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.002246726318898313</v>
+        <v>0.004719197250782595</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -3736,14 +3736,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>lattice parameters a</t>
+          <t>monoclinic distortion</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.01163135340938575</v>
+        <v>0.000947512140454101</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208">
@@ -3752,14 +3752,14 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>rhombohedral lattice</t>
+          <t>rhombohedral symmetry</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.001915683248530247</v>
+        <v>0.001426993214717333</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209">
@@ -3768,11 +3768,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>structural expansion</t>
+          <t>structural distortion</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.001555371356662549</v>
+        <v>0.001342349516696046</v>
       </c>
       <c r="D209" t="n">
         <v>0.5</v>
@@ -3784,11 +3784,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>unit cell parameters</t>
+          <t>structural parameters</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.002711262702498807</v>
+        <v>0.002179426278461212</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>diffusion coefficient</t>
+          <t>diffusion coefficients</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.001291163208256697</v>
+        <v>0.001194457750557182</v>
       </c>
       <c r="D211" t="n">
         <v>0.5</v>
@@ -3816,14 +3816,14 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>high bending strength</t>
+          <t>orientational disorder</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.002427476790221071</v>
+        <v>0.0002217393976097497</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3832,14 +3832,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>lithium ion migration</t>
+          <t>crystal lattice species</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.004697631083106273</v>
+        <v>0.001860604473485499</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214">
@@ -3848,14 +3848,14 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>monoclinic distortion</t>
+          <t>mo stretching distortion</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.0009431821231629196</v>
+        <v>0.000655389798685834</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3864,11 +3864,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>rhombohedral symmetry</t>
+          <t>low expansion coefﬁcients</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.00142047202619603</v>
+        <v>0.001470508898221263</v>
       </c>
       <c r="D215" t="n">
         <v>0.5</v>
@@ -3880,14 +3880,14 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>structural distortion</t>
+          <t>crystal lattice parameters</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.001336215139763085</v>
+        <v>0.002191318531156148</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>structural parameters</t>
+          <t>lattice volume contraction</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.002169466560724963</v>
+        <v>0.001226234864029931</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218">
@@ -3912,11 +3912,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>diffusion coefficients</t>
+          <t>lattice parameter variation</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.001188999221328186</v>
+        <v>0.001306846421498336</v>
       </c>
       <c r="D218" t="n">
         <v>0.5</v>
@@ -3928,14 +3928,14 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>orientational disorder</t>
+          <t>glass transition temperature</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.0002207260750518708</v>
+        <v>0.004361393542276133</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>crystal lattice species</t>
+          <t>interstitial ionic diffusion</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.001852101733311235</v>
+        <v>0.002405941217356865</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -3960,14 +3960,14 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>mo stretching distortion</t>
+          <t>phase transition temperature</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.0006523947455993231</v>
+        <v>0.004821732849424311</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -3976,11 +3976,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>low expansion coefﬁcients</t>
+          <t>thermal expansion behaviours</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.001463788848224772</v>
+        <v>0.001049221023920203</v>
       </c>
       <c r="D222" t="n">
         <v>0.5</v>
@@ -3992,14 +3992,14 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>crystal lattice parameters</t>
+          <t>anisotropic thermal expansion</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.002181304467245744</v>
+        <v>0.001111078500584515</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="224">
@@ -4008,11 +4008,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>lattice volume contraction</t>
+          <t>hexagonal unit cell parameter</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.001220631117188488</v>
+        <v>0.001873200455699206</v>
       </c>
       <c r="D224" t="n">
         <v>0.5</v>
@@ -4024,11 +4024,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>lattice parameter variation</t>
+          <t>rhombohedral crystal symmetry</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.001300874289469194</v>
+        <v>0.001702286940791931</v>
       </c>
       <c r="D225" t="n">
         <v>0.5</v>
@@ -4040,14 +4040,14 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>glass transition temperature</t>
+          <t>characteristic parameter</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.004341462494804116</v>
+        <v>0.0007975414742585583</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4056,11 +4056,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>interstitial ionic diffusion</t>
+          <t>temperature structure is measured</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.002394946353409551</v>
+        <v>0.008510643518455624</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -4072,14 +4072,14 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>phase transition temperature</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.004799698106311195</v>
+        <v>0.001291618145305144</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="229">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>thermal expansion behaviours</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.001044426209181821</v>
+        <v>0.0005192980759577845</v>
       </c>
       <c r="D229" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4104,14 +4104,14 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>anisotropic thermal expansion</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.00110600100456733</v>
+        <v>0.0008571382493460674</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4120,14 +4120,14 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>hexagonal unit cell parameter</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.001864640153390953</v>
+        <v>0.007133312044343209</v>
       </c>
       <c r="D231" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -4136,14 +4136,14 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>rhombohedral crystal symmetry</t>
+          <t>high porosity</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.001694507692829315</v>
+        <v>0.003380699845740061</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -4152,14 +4152,14 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>characteristic parameter</t>
+          <t>high pressure</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.0007938968049962533</v>
+        <v>0.003766859880413741</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -4168,14 +4168,14 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>temperature structure is measured</t>
+          <t>lower porosity</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.008471750894265781</v>
+        <v>0.001182585372839509</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="235">
@@ -4184,11 +4184,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>oxygen pressure</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.001285715604679021</v>
+        <v>0.001586292039812184</v>
       </c>
       <c r="D235" t="n">
         <v>0.5</v>
@@ -4200,14 +4200,14 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>porosity</t>
+          <t>room temperature</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.0005169249457864952</v>
+        <v>0.004695200402636743</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -4216,14 +4216,14 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>constant pressure</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.0008532212299410994</v>
+        <v>0.001325738282527213</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238">
@@ -4232,11 +4232,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>electrode porosity</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.007100713660452744</v>
+        <v>0.003082617593899172</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -4248,11 +4248,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>high porosity</t>
+          <t>high oxygen pressure</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.003365250451306621</v>
+        <v>0.003138228565048902</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -4264,11 +4264,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>high pressure</t>
+          <t>absolute temperature</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.003749645780752884</v>
+        <v>0.003738649907983262</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -4280,14 +4280,14 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>lower porosity</t>
+          <t>high oxygen pressures</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.001177181098958396</v>
+        <v>0.002784560351699376</v>
       </c>
       <c r="D241" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -4296,14 +4296,14 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>oxygen pressure</t>
+          <t>high room temperature</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.001579042874690185</v>
+        <v>0.005210834140265275</v>
       </c>
       <c r="D242" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>room temperature</t>
+          <t>increasing temperature</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.004673743897689761</v>
+        <v>0.004319186124536074</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -4328,11 +4328,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>constant pressure</t>
+          <t>characteristic parameters</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.001319679816950009</v>
+        <v>0.001444656393823447</v>
       </c>
       <c r="D244" t="n">
         <v>0.5</v>
@@ -4344,11 +4344,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>electrode porosity</t>
+          <t>characteristic temperature</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.003068530399747457</v>
+        <v>0.003916875655204954</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>high oxygen pressure</t>
+          <t>room temperature condition</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.003123887235402372</v>
+        <v>0.003306495071538911</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -4376,14 +4376,14 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>absolute temperature</t>
+          <t>overall parameters</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.003721564724526422</v>
+        <v>0.001442684652772156</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248">
@@ -4392,11 +4392,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>high oxygen pressures</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.002771835243538315</v>
+        <v>0.004359422089863518</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -4408,14 +4408,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>high room temperature</t>
+          <t>ewald summation energy</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.005187021250735423</v>
+        <v>0.001476053178478678</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250">
@@ -4424,11 +4424,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>increasing temperature</t>
+          <t>formation energy competing phases</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.004299447959920992</v>
+        <v>0.002202768836370649</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -4440,14 +4440,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>characteristic parameters</t>
+          <t>energy landscape</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.001438054486683689</v>
+        <v>0.002207056437373055</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -4456,11 +4456,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>characteristic temperature</t>
+          <t>migration energy</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.003898976001374326</v>
+        <v>0.002746575258087343</v>
       </c>
       <c r="D252" t="n">
         <v>1</v>
@@ -4472,11 +4472,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>room temperature condition</t>
+          <t>potential energy</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.003291384784058997</v>
+        <v>0.003499744367321371</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -4488,14 +4488,14 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>overall parameters</t>
+          <t>migration entropy</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.001436091756253457</v>
+        <v>0.000708988736544693</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>gibbs energy change</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.004339500051693516</v>
+        <v>0.001958372093651834</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ewald summation energy</t>
+          <t>oxygen vacancy formation</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.001469307791783735</v>
+        <v>0.001509324120535727</v>
       </c>
       <c r="D256" t="n">
         <v>0.5</v>
@@ -4536,11 +4536,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>formation energy competing phases</t>
+          <t>site energy landscapes</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.002192702445933278</v>
+        <v>0.002166541157013006</v>
       </c>
       <c r="D257" t="n">
         <v>1</v>
@@ -4552,11 +4552,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>electronegativity</t>
+          <t>interatomic parameter</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.0002195768730074105</v>
+        <v>0.0005485117380389703</v>
       </c>
       <c r="D258" t="n">
         <v>0</v>
@@ -4568,11 +4568,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>average electronegativity sublattice</t>
+          <t>bond length</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.0004419069276646618</v>
+        <v>0.000735767531920072</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -4584,11 +4584,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>average straight-line path electronegativity</t>
+          <t>bond length mo</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.0003846003596034665</v>
+        <v>0.0007326021766483152</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -4600,14 +4600,14 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>energy landscape</t>
+          <t>bond length xo</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.002196970453111303</v>
+        <v>0.0004986563288909804</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>migration energy</t>
+          <t>bond strength</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.002734023737266354</v>
+        <v>0.0007838477203693307</v>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4632,14 +4632,14 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>potential energy</t>
+          <t>average bond ionicity</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.003483750953645475</v>
+        <v>0.0006578606866499959</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -4648,11 +4648,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>migration entropy</t>
+          <t>average bond ionicity sublattice</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.0007057487427151468</v>
+        <v>0.0005459447879950934</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -4664,14 +4664,14 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>gibbs energy change</t>
+          <t>standard deviation bond ionicity</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.001949422567132823</v>
+        <v>0.0005192699090918301</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -4680,14 +4680,14 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>oxygen vacancy formation</t>
+          <t>length</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.001502426689610162</v>
+        <v>0.0004578056992420574</v>
       </c>
       <c r="D266" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -4696,14 +4696,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>site energy landscapes</t>
+          <t>ba bonds</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.002156640322742506</v>
+        <v>0.0004840711813704926</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -4712,11 +4712,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>interatomic parameter</t>
+          <t>bond angles</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.0005460051049218617</v>
+        <v>0.0007112555145060929</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>bond length</t>
+          <t>bond distances</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.0007324051621946804</v>
+        <v>0.000866772499867726</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
@@ -4744,14 +4744,14 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>bond length mo</t>
+          <t>chemical bonds</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.0007292542722183793</v>
+        <v>0.001291025206028737</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271">
@@ -4760,11 +4760,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>bond length xo</t>
+          <t>cation repulsion</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.000496377529037904</v>
+        <v>0.000852461307246853</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -4776,11 +4776,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>bond strength</t>
+          <t>coordination bond</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.0007802656299264306</v>
+        <v>0.0008678394945160977</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -4792,11 +4792,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>average bond ionicity</t>
+          <t>coulomb interaction</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.0006548543419006634</v>
+        <v>0.0003913881280802435</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -4808,11 +4808,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>average bond ionicity sublattice</t>
+          <t>anion intercalation</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.0005434498855330349</v>
+        <v>0.0007723979504273251</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -4824,14 +4824,14 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>standard deviation bond ionicity</t>
+          <t>oxygen bond lengths</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.0005168969076397534</v>
+        <v>0.001068294666067547</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="276">
@@ -4840,14 +4840,14 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>length</t>
+          <t>sodium cation bonds</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0004557135818864218</v>
+        <v>0.002343633693581769</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ba bonds</t>
+          <t>coulombic interactions</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0004818590338992292</v>
+        <v>0.0005033512943713236</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -4872,11 +4872,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>bond angles</t>
+          <t>intrinsic-atomic parameter</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.0007080051617720547</v>
+        <v>0.0004473218412252098</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -4888,11 +4888,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>bond distances</t>
+          <t>radius</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.0008628114530887907</v>
+        <v>0.0006945570736374542</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>chemical bonds</t>
+          <t>r_m_avg/r_na</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.001285125375064274</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4920,14 +4920,14 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>cation repulsion</t>
+          <t>ionic radius na</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.0008485656609085665</v>
+        <v>0.004212298680333814</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -4936,14 +4936,14 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>coordination bond</t>
+          <t>average radius m site</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.0008638735716990835</v>
+        <v>0.001800432529276043</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="283">
@@ -4952,14 +4952,14 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>coulomb interaction</t>
+          <t>average radius a site</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.0003895995310905117</v>
+        <v>0.008615739872973623</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -4968,14 +4968,14 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>anion intercalation</t>
+          <t>ionic radius element m1</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.0007688681840652598</v>
+        <v>0.001921388752054736</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="285">
@@ -4984,11 +4984,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>oxygen bond lengths</t>
+          <t>ionic radius element m2</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.001063412687063107</v>
+        <v>0.001819938916057475</v>
       </c>
       <c r="D285" t="n">
         <v>0.5</v>
@@ -5000,14 +5000,14 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>sodium cation bonds</t>
+          <t>ionic radius element x1</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.002332923567574792</v>
+        <v>0.001489229037176956</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="287">
@@ -5016,14 +5016,14 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>coulombic interactions</t>
+          <t>ionic radius element x2</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.000501051039086867</v>
+        <v>0.001492865281738128</v>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288">
@@ -5032,14 +5032,14 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>intrinsic-atomic parameter</t>
+          <t>maximum deviation radius m site</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.0004452776338482996</v>
+        <v>0.001531627705409612</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="289">
@@ -5048,14 +5048,14 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>radius</t>
+          <t>maximum deviation radius a site</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.000691383030783374</v>
+        <v>0.006983873580367677</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -5064,14 +5064,14 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>r_m_avg/r_na</t>
+          <t>standard deviation radius m site</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>0.001461045538704301</v>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="291">
@@ -5080,11 +5080,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ionic radius na</t>
+          <t>standard deviation radius a site</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.004193048978569862</v>
+        <v>0.006913291413662366</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -5096,14 +5096,14 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>average radius m site</t>
+          <t>average effective ionic radius m site</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.001792204767698619</v>
+        <v>0.002087744972420328</v>
       </c>
       <c r="D292" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -5112,11 +5112,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>average radius a site</t>
+          <t>average effective ionic radius x site</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.008576366970998544</v>
+        <v>0.002651290630052809</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -5128,11 +5128,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ionic radius element m1</t>
+          <t>ionic radius formulaic leftmost dopant</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.001912608234988758</v>
+        <v>0.001101651578942371</v>
       </c>
       <c r="D294" t="n">
         <v>0.5</v>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ionic radius element m2</t>
+          <t>ionic radius formulaic rightmost dopant</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.001811622012622711</v>
+        <v>0.001101651578942371</v>
       </c>
       <c r="D295" t="n">
         <v>0.5</v>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ionic radius element x1</t>
+          <t>calculated effective ionic radius according formulana</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.001482423438381763</v>
+        <v>0.001458940579302185</v>
       </c>
       <c r="D296" t="n">
         <v>0.5</v>
@@ -5176,11 +5176,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ionic radius element x2</t>
+          <t>calculated effective ionic radius according formulad2</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.001486043065739679</v>
+        <v>0.001458614913745223</v>
       </c>
       <c r="D297" t="n">
         <v>0.5</v>
@@ -5192,11 +5192,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>maximum deviation radius m site</t>
+          <t>calculated effective ionic radius according formulad3</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.001524628349765581</v>
+        <v>0.001458614913745223</v>
       </c>
       <c r="D298" t="n">
         <v>0.5</v>
@@ -5208,14 +5208,14 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>maximum deviation radius a site</t>
+          <t>radius m1</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.006951958112405521</v>
+        <v>0.001234630422278062</v>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="300">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>standard deviation radius m site</t>
+          <t>radius m2</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.0014543687351303</v>
+        <v>0.001031730750283539</v>
       </c>
       <c r="D300" t="n">
         <v>0.5</v>
@@ -5240,14 +5240,14 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>standard deviation radius a site</t>
+          <t>radius x1</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.00688169849777024</v>
+        <v>0.0003703109925225022</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -5256,14 +5256,14 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>average effective ionic radius m site</t>
+          <t>radius x2</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.002078204227300351</v>
+        <v>0.000377583481644846</v>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -5272,11 +5272,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>average effective ionic radius x site</t>
+          <t>effective mean ionic radius m</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.002639174548599147</v>
+        <v>0.00197892717205667</v>
       </c>
       <c r="D303" t="n">
         <v>1</v>
@@ -5288,14 +5288,14 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ionic radius formulaic leftmost dopant</t>
+          <t>effective mean ionic radius x</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.001096617162830941</v>
+        <v>0.002655181961215648</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -5304,11 +5304,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ionic radius formulaic rightmost dopant</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.001096617162830941</v>
+        <v>0.001365123738237157</v>
       </c>
       <c r="D305" t="n">
         <v>0.5</v>
@@ -5320,14 +5320,14 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulana</t>
+          <t>volume na</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.001452273395141191</v>
+        <v>0.004432003182103851</v>
       </c>
       <c r="D306" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -5336,14 +5336,14 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad2</t>
+          <t>volume d2</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.001451949217836921</v>
+        <v>0.0007199976523165851</v>
       </c>
       <c r="D307" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -5352,14 +5352,14 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad3</t>
+          <t>volume d3</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.001451949217836921</v>
+        <v>0.0007036030149647164</v>
       </c>
       <c r="D308" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -5368,14 +5368,14 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>radius m1</t>
+          <t>volume per anion</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.001228988308738366</v>
+        <v>0.0009208424082509608</v>
       </c>
       <c r="D309" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -5384,11 +5384,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>radius m2</t>
+          <t>calculated effective volume species d1 according formula na</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.001027015864006271</v>
+        <v>0.001857928280633279</v>
       </c>
       <c r="D310" t="n">
         <v>0.5</v>
@@ -5400,14 +5400,14 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>radius x1</t>
+          <t>calculated effective volume species d2 according formula d2</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0003686187155243747</v>
+        <v>0.0009311472595299261</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="312">
@@ -5416,11 +5416,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>radius x2</t>
+          <t>calculated effective volume species d3 according formula d3</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0003758579702402078</v>
+        <v>0.0009229499408539918</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
@@ -5432,14 +5432,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>effective mean ionic radius m</t>
+          <t>volume m1</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.001969883711284877</v>
+        <v>0.001569913754577913</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="314">
@@ -5448,14 +5448,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>effective mean ionic radius x</t>
+          <t>volume m2</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.002643048096843434</v>
+        <v>0.00136701408258339</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="315">
@@ -5464,14 +5464,14 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>volume na</t>
+          <t>volume x1</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.004411749457012915</v>
+        <v>0.0007055943248223536</v>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -5480,11 +5480,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>volume d2</t>
+          <t>volume x2</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.0007167073490570968</v>
+        <v>0.0007128668139446975</v>
       </c>
       <c r="D316" t="n">
         <v>0</v>
@@ -5496,14 +5496,14 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>volume d3</t>
+          <t>effective mean volume m</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.0007003876332394074</v>
+        <v>0.001530436545872402</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="318">
@@ -5512,14 +5512,14 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>volume per anion</t>
+          <t>effective mean volume x</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.0009166342684499562</v>
+        <v>0.002375755032321125</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -5528,14 +5528,14 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>calculated effective volume species d1 according formula na</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.001849437770340649</v>
+        <v>0.0008180507053306723</v>
       </c>
       <c r="D319" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -5544,11 +5544,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>calculated effective volume species d2 according formula d2</t>
+          <t>valence element m1</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.000926892027789604</v>
+        <v>0.001121864099506239</v>
       </c>
       <c r="D320" t="n">
         <v>0.5</v>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>calculated effective volume species d3 according formula d3</t>
+          <t>valence element m2</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0009187321698807593</v>
+        <v>0.0009865976515098904</v>
       </c>
       <c r="D321" t="n">
         <v>0.5</v>
@@ -5576,14 +5576,14 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>volume m1</t>
+          <t>valence element x1</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.00156273943626287</v>
+        <v>0.000545651146335866</v>
       </c>
       <c r="D322" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -5592,14 +5592,14 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>volume m2</t>
+          <t>valence element x2</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.001360766991530775</v>
+        <v>0.0005504994724174285</v>
       </c>
       <c r="D323" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -5608,14 +5608,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>volume x1</t>
+          <t>average ionic charge states m site</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.000702369843048879</v>
+        <v>0.002434881002279985</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>volume x2</t>
+          <t>average ionic charge states a site</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.0007096090977647121</v>
+        <v>0.006978419231411706</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5640,14 +5640,14 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>effective mean volume m</t>
+          <t>average effective ionic valence m site</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.001523442633685158</v>
+        <v>0.002108327244369197</v>
       </c>
       <c r="D326" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5656,11 +5656,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>effective mean volume x</t>
+          <t>average effective ionic valence x site</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.002364898115633353</v>
+        <v>0.002671872902001679</v>
       </c>
       <c r="D327" t="n">
         <v>1</v>
@@ -5672,14 +5672,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>valence</t>
+          <t>maximum deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.0008143123113324198</v>
+        <v>0.002152242060517686</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -5688,14 +5688,14 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>valence element m1</t>
+          <t>maximum deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.001116737314590439</v>
+        <v>0.006046703399773447</v>
       </c>
       <c r="D329" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -5704,14 +5704,14 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>valence element m2</t>
+          <t>standard deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.0009820890181023759</v>
+        <v>0.002101826227156749</v>
       </c>
       <c r="D330" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -5720,14 +5720,14 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>valence element x1</t>
+          <t>standard deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.0005431575857811116</v>
+        <v>0.00599628756641251</v>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -5736,14 +5736,14 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>valence element x2</t>
+          <t>valence m1</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.000547983755591667</v>
+        <v>0.001296377238124671</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="333">
@@ -5752,14 +5752,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>average ionic charge states m site</t>
+          <t>valence m2</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.002423753886972746</v>
+        <v>0.001093477566130148</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="334">
@@ -5768,14 +5768,14 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>average ionic charge states a site</t>
+          <t>valence x1</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.006946528689172697</v>
+        <v>0.0004320578083691112</v>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>average effective ionic valence m site</t>
+          <t>valence x2</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.002098692440725191</v>
+        <v>0.0004393302974914551</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5800,14 +5800,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>average effective ionic valence x site</t>
+          <t>effective mean valence m</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.002659662762023988</v>
+        <v>0.001393668287645781</v>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="337">
@@ -5816,11 +5816,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states m site</t>
+          <t>effective mean valence x</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.002142406571409987</v>
+        <v>0.002238986774094503</v>
       </c>
       <c r="D337" t="n">
         <v>1</v>
@@ -5832,14 +5832,14 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states a site</t>
+          <t>electronegativity</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.006019070687581373</v>
+        <v>0.0002205849197393368</v>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -5848,14 +5848,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states m site</t>
+          <t>x_m_avg-x_a</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.002092221132384785</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -5864,14 +5864,14 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states a site</t>
+          <t>x_m_avg-x_na</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.005968885248556172</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -5880,14 +5880,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>valence m1</t>
+          <t>electronegativity na</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.001290452949012889</v>
+        <v>0.003859733772854941</v>
       </c>
       <c r="D341" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -5896,14 +5896,14 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>valence m2</t>
+          <t>electronegativity dopant d2</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.001088480504280794</v>
+        <v>0.0002203188044906544</v>
       </c>
       <c r="D342" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5912,11 +5912,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>valence x1</t>
+          <t>electronegativity dopant d3</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.0004300833557988976</v>
+        <v>0.0002093890462560754</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
@@ -5928,11 +5928,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>valence x2</t>
+          <t>electronegativity element m1</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.0004373226105147308</v>
+        <v>0.0009227088376424607</v>
       </c>
       <c r="D344" t="n">
         <v>0</v>
@@ -5944,14 +5944,14 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>effective mean valence m</t>
+          <t>electronegativity element m2</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.001387299390060168</v>
+        <v>0.0007874423896461118</v>
       </c>
       <c r="D345" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>effective mean valence x</t>
+          <t>electronegativity element x1</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.002228754872008363</v>
+        <v>0.0003464958844720874</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -5976,11 +5976,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>x_m_avg-x_a</t>
+          <t>electronegativity element x2</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>0.0003513442105536499</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>x_m_avg-x_na</t>
+          <t>average electronegativity m site</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>0.001681939490801513</v>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="349">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>electronegativity na</t>
+          <t>average electronegativity a site</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.00384209525060043</v>
+        <v>0.008497246834499095</v>
       </c>
       <c r="D349" t="n">
         <v>1</v>
@@ -6024,14 +6024,14 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>electronegativity dopant d2</t>
+          <t>average effective electronegativity m site</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.0002193119738736243</v>
+        <v>0.001521808267846081</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="351">
@@ -6040,14 +6040,14 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>electronegativity dopant d3</t>
+          <t>average effective electronegativity x site</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.000208432163328498</v>
+        <v>0.002198063057005059</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -6056,11 +6056,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>electronegativity element m1</t>
+          <t>maximum deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.0009184921684821025</v>
+        <v>0.001436833274629989</v>
       </c>
       <c r="D352" t="n">
         <v>0.5</v>
@@ -6072,14 +6072,14 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>electronegativity element m2</t>
+          <t>maximum deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.0007838438719940395</v>
+        <v>0.006889079149588054</v>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -6088,14 +6088,14 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>electronegativity element x1</t>
+          <t>standard deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.0003449124396727751</v>
+        <v>0.001366251107924677</v>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="355">
@@ -6104,14 +6104,14 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>electronegativity element x2</t>
+          <t>standard deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.0003497386094833305</v>
+        <v>0.006818496982882742</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -6120,14 +6120,14 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>average electronegativity m site</t>
+          <t>calculated effective electronegativity according formula na</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.001674253228254628</v>
+        <v>0.002076174567058643</v>
       </c>
       <c r="D356" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -6136,14 +6136,14 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>average electronegativity a site</t>
+          <t>calculated effective electronegativity according formula d2</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.008458415431554555</v>
+        <v>0.0008388393904628878</v>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -6152,14 +6152,14 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>average effective electronegativity m site</t>
+          <t>calculated effective electronegativity according formula d3</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.001514853785858675</v>
+        <v>0.0008333745113455984</v>
       </c>
       <c r="D358" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -6168,14 +6168,14 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>average effective electronegativity x site</t>
+          <t>electronegativity m1</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.002188018171417231</v>
+        <v>0.0009976443453290035</v>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="360">
@@ -6184,14 +6184,14 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity m site</t>
+          <t>electronegativity m2</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.001430267118210388</v>
+        <v>0.00079474467333448</v>
       </c>
       <c r="D360" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -6200,14 +6200,14 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity a site</t>
+          <t>electronegativity x1</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.006857596880850328</v>
+        <v>0.0001333249155734435</v>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -6216,14 +6216,14 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity m site</t>
+          <t>electronegativity x2</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.001360007503575107</v>
+        <v>0.0001405974046957873</v>
       </c>
       <c r="D362" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -6232,14 +6232,14 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity a site</t>
+          <t>effective mean element electronegativity m</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.006787337266215047</v>
+        <v>0.001150009037452232</v>
       </c>
       <c r="D363" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="364">
@@ -6248,14 +6248,14 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula na</t>
+          <t>effective mean element electronegativity x</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.002066686697308957</v>
+        <v>0.001826263826611211</v>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="365">
@@ -6264,14 +6264,14 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d2</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.000835005994657017</v>
+        <v>0.001056475798652517</v>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="366">
@@ -6280,11 +6280,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d3</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.0008295660893844539</v>
+        <v>0.0009062201368311017</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>electronegativity m1</t>
+          <t>magnetic</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.0009930852298503843</v>
+        <v>0.0008806066393344289</v>
       </c>
       <c r="D367" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -6312,11 +6312,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>electronegativity m2</t>
+          <t>valences</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.0007911127851182895</v>
+        <v>6.720949597350403e-05</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>electronegativity x1</t>
+          <t>ion radii</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.000132715636636393</v>
+        <v>0.003756926298124223</v>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -6344,14 +6344,14 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>electronegativity x2</t>
+          <t>ion radius</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.0001399548913522261</v>
+        <v>0.003876556857147202</v>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -6360,14 +6360,14 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity m</t>
+          <t>ionic size</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.00114475363353224</v>
+        <v>0.003414748222830262</v>
       </c>
       <c r="D371" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -6376,11 +6376,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity x</t>
+          <t>active mass</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001817918019090796</v>
+        <v>0.001280866176548232</v>
       </c>
       <c r="D372" t="n">
         <v>0.5</v>
@@ -6392,14 +6392,14 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>cation size</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.00105164783046027</v>
+        <v>0.00196891777563211</v>
       </c>
       <c r="D373" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -6408,14 +6408,14 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>ionic radii</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.0009020788190636957</v>
+        <v>0.00244937614849247</v>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -6424,14 +6424,14 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>magnetic</t>
+          <t>cation sizes</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.0008765823721907701</v>
+        <v>0.00104031023430467</v>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="376">
@@ -6440,14 +6440,14 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>valences</t>
+          <t>divalent ion</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>6.690235660581491e-05</v>
+        <v>0.003760381491331893</v>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -6456,11 +6456,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ion radii</t>
+          <t>ionic radius</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.003739757593747754</v>
+        <v>0.002569006707515449</v>
       </c>
       <c r="D377" t="n">
         <v>1</v>
@@ -6472,14 +6472,14 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ion radius</t>
+          <t>polarization</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.003858841455407178</v>
+        <v>0.001030007714814593</v>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="379">
@@ -6488,14 +6488,14 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ionic size</t>
+          <t>cation radius</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.00339914323138097</v>
+        <v>0.001123176260317298</v>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="380">
@@ -6504,11 +6504,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>active mass</t>
+          <t>oxygen radius</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.001275012771134888</v>
+        <v>0.001287761503978339</v>
       </c>
       <c r="D380" t="n">
         <v>0.5</v>
@@ -6520,11 +6520,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>cation size</t>
+          <t>valence state</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.001959920056606246</v>
+        <v>0.002101354823570831</v>
       </c>
       <c r="D381" t="n">
         <v>1</v>
@@ -6536,14 +6536,14 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ionic radii</t>
+          <t>atomic masses</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.002438182792098644</v>
+        <v>0.0004023330239464463</v>
       </c>
       <c r="D382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -6552,11 +6552,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>cation sizes</t>
+          <t>mass m1</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.001035556140810339</v>
+        <v>0.001415589784785594</v>
       </c>
       <c r="D383" t="n">
         <v>0.5</v>
@@ -6568,14 +6568,14 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>divalent ion</t>
+          <t>mass m2</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.003743196997135225</v>
+        <v>0.00121269011279107</v>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="385">
@@ -6584,14 +6584,14 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ionic radius</t>
+          <t>mass x1</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.002557266653758068</v>
+        <v>0.0005512703550300337</v>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -6600,14 +6600,14 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>polarization</t>
+          <t>mass x2</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.001025300702603583</v>
+        <v>0.0005585428441523774</v>
       </c>
       <c r="D386" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -6616,11 +6616,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>cation radius</t>
+          <t>effective meant mass m</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.001118043478983343</v>
+        <v>0.001355296047880771</v>
       </c>
       <c r="D387" t="n">
         <v>0.5</v>
@@ -6632,14 +6632,14 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>oxygen radius</t>
+          <t>effective mean mass x</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.001281876587742362</v>
+        <v>0.002298593047424964</v>
       </c>
       <c r="D388" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -6648,14 +6648,14 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>valence state</t>
+          <t>polarizability</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.002091751883056942</v>
+        <v>8.086062712184776e-05</v>
       </c>
       <c r="D389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -6664,14 +6664,14 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>atomic masses</t>
+          <t>polarizability m1</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.0004004944100900934</v>
+        <v>0.0009277821990202589</v>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="391">
@@ -6680,14 +6680,14 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>mass m1</t>
+          <t>polarizability m2</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.001409120708576814</v>
+        <v>0.0007248825270257355</v>
       </c>
       <c r="D391" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -6696,14 +6696,14 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>mass m2</t>
+          <t>polarizability x1</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.001207148263844719</v>
+        <v>6.346276926469899e-05</v>
       </c>
       <c r="D392" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -6712,11 +6712,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>mass x1</t>
+          <t>polarizability x2</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.0005487511153628229</v>
+        <v>7.073525838704283e-05</v>
       </c>
       <c r="D393" t="n">
         <v>0</v>
@@ -6728,14 +6728,14 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>mass x2</t>
+          <t>effective mean element polarizability m</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.0005559903700786559</v>
+        <v>0.001122064178928735</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="395">
@@ -6744,11 +6744,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>effective meant mass m</t>
+          <t>effective mean element polarizability x</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.0013491025068469</v>
+        <v>0.001798318968087713</v>
       </c>
       <c r="D395" t="n">
         <v>0.5</v>
@@ -6760,14 +6760,14 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>effective mean mass x</t>
+          <t>average radius</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.002288088751790325</v>
+        <v>0.000797791021834817</v>
       </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -6776,11 +6776,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>polarizability</t>
+          <t>valence states</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>8.049110371558767e-05</v>
+        <v>0.000736218867717932</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -6792,11 +6792,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>polarizability m1</t>
+          <t>rb concentration</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.0009235423452044726</v>
+        <v>0.001573214322107803</v>
       </c>
       <c r="D398" t="n">
         <v>0.5</v>
@@ -6808,14 +6808,14 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>polarizability m2</t>
+          <t>vanadium content</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.0007215699004723781</v>
+        <v>0.001259748436654981</v>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="400">
@@ -6824,14 +6824,14 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>polarizability x1</t>
+          <t>ionization energy</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6.317275199048159e-05</v>
+        <v>0.002217018148124301</v>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -6840,14 +6840,14 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>polarizability x2</t>
+          <t>first ionization energy m1</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>7.041200670631471e-05</v>
+        <v>0.001993884149552606</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -6856,11 +6856,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>effective mean element polarizability m</t>
+          <t>first ionization energy m2</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.001116936479673876</v>
+        <v>0.001892434313555344</v>
       </c>
       <c r="D402" t="n">
         <v>0.5</v>
@@ -6872,11 +6872,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>effective mean element polarizability x</t>
+          <t>first ionization energy x1</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.001790100865232432</v>
+        <v>0.001561724434674826</v>
       </c>
       <c r="D403" t="n">
         <v>0.5</v>
@@ -6888,14 +6888,14 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>average radius</t>
+          <t>first ionization energy x2</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.0007941452121698997</v>
+        <v>0.001565360679235998</v>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="405">
@@ -6904,14 +6904,14 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>valence states</t>
+          <t>second ionization energy m1</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.0007328544354418613</v>
+        <v>0.001785811858816308</v>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="406">
@@ -6920,11 +6920,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>rb concentration</t>
+          <t>second ionization energy m2</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.001566024920593437</v>
+        <v>0.001684362022819046</v>
       </c>
       <c r="D406" t="n">
         <v>0.5</v>
@@ -6936,11 +6936,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>vanadium content</t>
+          <t>second ionization energy x1</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.001253991536790204</v>
+        <v>0.001353652143938528</v>
       </c>
       <c r="D407" t="n">
         <v>0.5</v>
@@ -6952,14 +6952,14 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ionization energy</t>
+          <t>second ionization energy x2</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.002206886640034452</v>
+        <v>0.0013572883884997</v>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="409">
@@ -6968,11 +6968,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>first ionization energy m1</t>
+          <t>divalent ion size</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.001984772337180431</v>
+        <v>0.003302267695643622</v>
       </c>
       <c r="D409" t="n">
         <v>1</v>
@@ -6984,14 +6984,14 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>first ionization energy m2</t>
+          <t>mobile ion radius</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.001883786114814384</v>
+        <v>0.002820983965239077</v>
       </c>
       <c r="D410" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -7000,14 +7000,14 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>first ionization energy x1</t>
+          <t>anion radius ratio</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.001554587540573435</v>
+        <v>0.0009118459020849559</v>
       </c>
       <c r="D411" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -7016,14 +7016,14 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>first ionization energy x2</t>
+          <t>w ion concentration</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.001558207167931352</v>
+        <v>0.003514835212634041</v>
       </c>
       <c r="D412" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -7032,14 +7032,14 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>second ionization energy m1</t>
+          <t>pentavalent vanadium</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.001777650911956286</v>
+        <v>0.0004621869319725437</v>
       </c>
       <c r="D413" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -7048,14 +7048,14 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>second ionization energy m2</t>
+          <t>high molecular weight</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.001676664689590239</v>
+        <v>0.002540820481069863</v>
       </c>
       <c r="D414" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -7064,11 +7064,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>second ionization energy x1</t>
+          <t>polarizability cations</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.001347466115349291</v>
+        <v>0.001038401696512731</v>
       </c>
       <c r="D415" t="n">
         <v>0.5</v>
@@ -7080,14 +7080,14 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>second ionization energy x2</t>
+          <t>effective ionic radius</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.001351085742707207</v>
+        <v>0.002006432263685084</v>
       </c>
       <c r="D416" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -7096,11 +7096,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>divalent ion size</t>
+          <t>oxidation state cation</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.003287176726766543</v>
+        <v>0.002061672706019109</v>
       </c>
       <c r="D417" t="n">
         <v>1</v>
@@ -7112,14 +7112,14 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>mobile ion radius</t>
+          <t>octahedral cation radius</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.002808092405515339</v>
+        <v>0.001018506125845186</v>
       </c>
       <c r="D418" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="419">
@@ -7128,14 +7128,14 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>anion radius ratio</t>
+          <t>vanadium oxidation state</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.0009076788752423989</v>
+        <v>0.001783021302593484</v>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="420">
@@ -7144,14 +7144,14 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>w ion concentration</t>
+          <t>pauling electronegativity</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.003498772835597832</v>
+        <v>0.0001230565035120705</v>
       </c>
       <c r="D420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -7160,11 +7160,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>pentavalent vanadium</t>
+          <t>extrinsic-atomic parameter</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.000460074792906716</v>
+        <v>0.0004473218412252098</v>
       </c>
       <c r="D421" t="n">
         <v>0</v>
@@ -7176,14 +7176,14 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>high molecular weight</t>
+          <t>occupancy</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.002529209235000184</v>
+        <v>0.0005021982666268774</v>
       </c>
       <c r="D422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -7192,11 +7192,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>polarizability cations</t>
+          <t>occupancy element m1</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.001033656324808114</v>
+        <v>0.001016579953271641</v>
       </c>
       <c r="D423" t="n">
         <v>0.5</v>
@@ -7208,14 +7208,14 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>effective ionic radius</t>
+          <t>occupancy element m2</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.001997263107930333</v>
+        <v>0.000881313505275292</v>
       </c>
       <c r="D424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -7224,14 +7224,14 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>oxidation state cation</t>
+          <t>occupancy element x1</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.002052251108041967</v>
+        <v>0.0004403670001012677</v>
       </c>
       <c r="D425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -7240,14 +7240,14 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>octahedral cation radius</t>
+          <t>occupancy element x2</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.001013851674521775</v>
+        <v>0.0004452153261828302</v>
       </c>
       <c r="D426" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -7256,14 +7256,14 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>vanadium oxidation state</t>
+          <t>occupancy na+ wyckoff 6b site</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.001774873108242038</v>
+        <v>0.000630874272130377</v>
       </c>
       <c r="D427" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -7272,11 +7272,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>pauling electronegativity</t>
+          <t>occupancy na+ wyckoff 18e site</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0001224941499914663</v>
+        <v>0.0006053509987598972</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -7288,11 +7288,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>extrinsic-atomic parameter</t>
+          <t>occupancy na+ wyckoff 36f site</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.0004452776338482996</v>
+        <v>0.0005815488534040271</v>
       </c>
       <c r="D429" t="n">
         <v>0</v>
@@ -7304,11 +7304,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>occupancy</t>
+          <t>stoichiometric occupancy d2 dopant position</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.000499903280541471</v>
+        <v>0.0004887516708017721</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
@@ -7320,14 +7320,14 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>occupancy element m1</t>
+          <t>concentration</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.001011934304326789</v>
+        <v>0.002659504012855568</v>
       </c>
       <c r="D431" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -7336,14 +7336,14 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>occupancy element m2</t>
+          <t>na content</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.0008772860078387263</v>
+        <v>0.004651269131280118</v>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -7352,14 +7352,14 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>occupancy element x1</t>
+          <t>na+ concentration</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.000438354575517462</v>
+        <v>0.001329752006427784</v>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="434">
@@ -7368,14 +7368,14 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>occupancy element x2</t>
+          <t>stoichiometric species m according formula</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.0004431807453280174</v>
+        <v>0.001532230602647532</v>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="435">
@@ -7384,14 +7384,14 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 6b site</t>
+          <t>stoichiometric species na according formula</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.0006279912520715766</v>
+        <v>0.002337618446657718</v>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -7400,14 +7400,14 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 18e site</t>
+          <t>stoichiometric species po4 according formula</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.0006025846170113657</v>
+        <v>0.003605113939389533</v>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -7416,14 +7416,14 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 36f site</t>
+          <t>fe doped</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.0005788912446163451</v>
+        <v>0.001939259510327779</v>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -7432,14 +7432,14 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>stoichiometric occupancy d2 dopant position</t>
+          <t>m ratios</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.0004865181340529435</v>
+        <v>0.001978220542507459</v>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -7448,11 +7448,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>concentration</t>
+          <t>al doping</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.002647350397223676</v>
+        <v>0.002588462471217056</v>
       </c>
       <c r="D439" t="n">
         <v>1</v>
@@ -7464,11 +7464,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>na content</t>
+          <t>m vacancy</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.004630013386995165</v>
+        <v>0.001959586399657704</v>
       </c>
       <c r="D440" t="n">
         <v>1</v>
@@ -7480,11 +7480,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>na+ concentration</t>
+          <t>mn doping</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.001323675198611838</v>
+        <v>0.00131159664931942</v>
       </c>
       <c r="D441" t="n">
         <v>0.5</v>
@@ -7496,14 +7496,14 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>stoichiometric species m according formula</t>
+          <t>al content</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.001525228491835146</v>
+        <v>0.002706933058143331</v>
       </c>
       <c r="D442" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -7512,14 +7512,14 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>stoichiometric species na according formula</t>
+          <t>content</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.002326935809610596</v>
+        <v>0.001803655636589692</v>
       </c>
       <c r="D443" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="444">
@@ -7528,14 +7528,14 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>stoichiometric species po4 according formula</t>
+          <t>vacancy</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.003588638999356833</v>
+        <v>0.0004472293933957934</v>
       </c>
       <c r="D444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -7544,11 +7544,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>fe doped</t>
+          <t>na vacancy</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.001930397326031351</v>
+        <v>0.003973056009683169</v>
       </c>
       <c r="D445" t="n">
         <v>1</v>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>m ratios</t>
+          <t>nb content</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.001969180310948291</v>
+        <v>0.001303437447763309</v>
       </c>
       <c r="D446" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="447">
@@ -7576,14 +7576,14 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>al doping</t>
+          <t>ni content</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.002576633506943761</v>
+        <v>0.001347421632424571</v>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="448">
@@ -7592,11 +7592,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>m vacancy</t>
+          <t>ion content</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.001950631323905308</v>
+        <v>0.004431106138623321</v>
       </c>
       <c r="D448" t="n">
         <v>1</v>
@@ -7608,14 +7608,14 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>mn doping</t>
+          <t>m vacancies</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.001305602809316603</v>
+        <v>0.002008650971178719</v>
       </c>
       <c r="D449" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -7624,14 +7624,14 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>al content</t>
+          <t>anion doping</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.002694562697440392</v>
+        <v>0.001023851095042847</v>
       </c>
       <c r="D450" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="451">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>na vacancies</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.00179541314579688</v>
+        <v>0.004022120581204184</v>
       </c>
       <c r="D451" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -7656,14 +7656,14 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>vacancy</t>
+          <t>cation doping</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.0004451856084944197</v>
+        <v>0.001559254954867141</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="453">
@@ -7672,14 +7672,14 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>na vacancy</t>
+          <t>per volume</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.003954899618343935</v>
+        <v>0.001140769748702164</v>
       </c>
       <c r="D453" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="454">
@@ -7688,14 +7688,14 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>nb content</t>
+          <t>gallium doping</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.001297480894336897</v>
+        <v>0.000873933936576687</v>
       </c>
       <c r="D454" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -7704,14 +7704,14 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ni content</t>
+          <t>sodium content</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.00134126407652865</v>
+        <v>0.003360869023677603</v>
       </c>
       <c r="D455" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -7720,14 +7720,14 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ion content</t>
+          <t>anion vacancies</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.00441085651291393</v>
+        <v>0.0005131731318931881</v>
       </c>
       <c r="D456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -7736,11 +7736,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>m vacancies</t>
+          <t>sodium contents</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.001999471676195771</v>
+        <v>0.002704612530609363</v>
       </c>
       <c r="D457" t="n">
         <v>1</v>
@@ -7752,11 +7752,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>anion doping</t>
+          <t>ag concentration</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.001019172217848718</v>
+        <v>0.001800786627700076</v>
       </c>
       <c r="D458" t="n">
         <v>0.5</v>
@@ -7768,14 +7768,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>na vacancies</t>
+          <t>chromium content</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.004003739970634398</v>
+        <v>0.001080676104123974</v>
       </c>
       <c r="D459" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="460">
@@ -7784,14 +7784,14 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>cation doping</t>
+          <t>na concentration</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.001552129345993466</v>
+        <v>0.005079193319413056</v>
       </c>
       <c r="D460" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -7800,14 +7800,14 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>per volume</t>
+          <t>na ions per unit</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.001135556567228025</v>
+        <v>0.003557308785669513</v>
       </c>
       <c r="D461" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -7816,14 +7816,14 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>gallium doping</t>
+          <t>oxygen vacancies</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.0008699401628875037</v>
+        <v>0.001213162235378523</v>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="463">
@@ -7832,14 +7832,14 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>sodium content</t>
+          <t>zirconium doping</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.003345510253731979</v>
+        <v>0.001323350376199732</v>
       </c>
       <c r="D463" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="464">
@@ -7848,11 +7848,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>anion vacancies</t>
+          <t>anion occupancies</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.0005108279919845825</v>
+        <v>0.0003472126425417999</v>
       </c>
       <c r="D464" t="n">
         <v>0</v>
@@ -7864,14 +7864,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>sodium contents</t>
+          <t>germanium content</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.002692252774440042</v>
+        <v>0.001041733703302127</v>
       </c>
       <c r="D465" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="466">
@@ -7880,14 +7880,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>ag concentration</t>
+          <t>ion concentration</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.001792557247935155</v>
+        <v>0.004859030326756259</v>
       </c>
       <c r="D466" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -7896,11 +7896,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>chromium content</t>
+          <t>m occupancy ratio</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.001075737543426714</v>
+        <v>0.001844711525938451</v>
       </c>
       <c r="D467" t="n">
         <v>0.5</v>
@@ -7912,14 +7912,14 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>na concentration</t>
+          <t>occupation factor</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.005055982012708562</v>
+        <v>0.0006045201924130708</v>
       </c>
       <c r="D468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -7928,14 +7928,14 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>na ions per unit</t>
+          <t>zirconium content</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.003541052309478466</v>
+        <v>0.001441820963126008</v>
       </c>
       <c r="D469" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="470">
@@ -7944,14 +7944,14 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>oxygen vacancies</t>
+          <t>high concentration</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.001207618228888348</v>
+        <v>0.004450802814188953</v>
       </c>
       <c r="D470" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -7960,14 +7960,14 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>zirconium doping</t>
+          <t>occupation factors</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.001317302823069183</v>
+        <v>0.0006151248013426472</v>
       </c>
       <c r="D471" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -7976,11 +7976,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>anion occupancies</t>
+          <t>vacancy occupation</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.0003456259222437335</v>
+        <v>0.0004294301509144247</v>
       </c>
       <c r="D472" t="n">
         <v>0</v>
@@ -7992,14 +7992,14 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>germanium content</t>
+          <t>occupancy na 6b</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.001036973104724526</v>
+        <v>0.00279062977404222</v>
       </c>
       <c r="D473" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -8008,11 +8008,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ion concentration</t>
+          <t>occupancy na 18e</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.004836825138627328</v>
+        <v>0.002748090985091421</v>
       </c>
       <c r="D474" t="n">
         <v>1</v>
@@ -8024,14 +8024,14 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>m occupancy ratio</t>
+          <t>occupancy na 36f</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.001836281414635891</v>
+        <v>0.002708420742831637</v>
       </c>
       <c r="D475" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -8040,14 +8040,14 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>occupation factor</t>
+          <t>occupancy m1</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.0006017576073502953</v>
+        <v>0.001138451018772774</v>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="477">
@@ -8056,11 +8056,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>zirconium content</t>
+          <t>occupancy m2</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.001435232013565814</v>
+        <v>0.0009355513467782503</v>
       </c>
       <c r="D477" t="n">
         <v>0.5</v>
@@ -8072,14 +8072,14 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>high concentration</t>
+          <t>occupancy x1</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.00443046317702521</v>
+        <v>0.0002741315890172139</v>
       </c>
       <c r="D478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -8088,11 +8088,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>occupation factors</t>
+          <t>occupancy x2</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.0006123137544839</v>
+        <v>0.0002814040781395577</v>
       </c>
       <c r="D479" t="n">
         <v>0</v>
@@ -8104,14 +8104,14 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>vacancy occupation</t>
+          <t>vacancy m</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.0004274677064248766</v>
+        <v>0.001959586399657704</v>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -8120,11 +8120,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>occupancy na 6b</t>
+          <t>vacancy x</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.002777876929346112</v>
+        <v>0.003650223372555149</v>
       </c>
       <c r="D481" t="n">
         <v>1</v>
@@ -8136,14 +8136,14 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>occupancy na 18e</t>
+          <t>vacancy 6b</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.002735532537579093</v>
+        <v>0.0004090189114625161</v>
       </c>
       <c r="D482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -8152,14 +8152,14 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>occupancy na 36f</t>
+          <t>vacancy 18e</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.002696043583587393</v>
+        <v>0.0003452107280363168</v>
       </c>
       <c r="D483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -8168,14 +8168,14 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>occupancy m1</t>
+          <t>vacancy 36f</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.001133248433617414</v>
+        <v>0.0002857053646466414</v>
       </c>
       <c r="D484" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -8184,14 +8184,14 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>occupancy m2</t>
+          <t>high sodium content</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.0009312759888853198</v>
+        <v>0.004321279887625848</v>
       </c>
       <c r="D485" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -8200,14 +8200,14 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>occupancy x1</t>
+          <t>lithium ion content</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.0002728788404034233</v>
+        <v>0.004942506320875437</v>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -8216,14 +8216,14 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>occupancy x2</t>
+          <t>na per formula unit</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.0002801180951192564</v>
+        <v>0.002818560622019611</v>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -8232,11 +8232,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>vacancy m</t>
+          <t>sodium concentration</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.001950631323905308</v>
+        <v>0.003788793211810541</v>
       </c>
       <c r="D488" t="n">
         <v>1</v>
@@ -8248,11 +8248,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>vacancy x</t>
+          <t>lithium concentration</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.003633542287801698</v>
+        <v>0.004312405349117618</v>
       </c>
       <c r="D489" t="n">
         <v>1</v>
@@ -8264,14 +8264,14 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>vacancy 6b</t>
+          <t>lithium ion contentas</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.0004071497438989173</v>
+        <v>0.004345417778195064</v>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -8280,14 +8280,14 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>vacancy 18e</t>
+          <t>carrier concentration</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.00034363315624839</v>
+        <v>0.00154823384160091</v>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="492">
@@ -8296,14 +8296,14 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>vacancy 36f</t>
+          <t>ion per formula unit</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.0002843997252608385</v>
+        <v>0.002708479125691212</v>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -8312,11 +8312,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>high sodium content</t>
+          <t>sodium per formula unit</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.004301532154763569</v>
+        <v>0.002173360568218353</v>
       </c>
       <c r="D493" t="n">
         <v>1</v>
@@ -8328,11 +8328,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>lithium ion content</t>
+          <t>lithium ion concentration</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.004919919657425501</v>
+        <v>0.005227789112964062</v>
       </c>
       <c r="D494" t="n">
         <v>1</v>
@@ -8344,14 +8344,14 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>na per formula unit</t>
+          <t>structural site occupancy</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.002805680136684891</v>
+        <v>0.001602127323161342</v>
       </c>
       <c r="D495" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="496">
@@ -8360,11 +8360,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>sodium concentration</t>
+          <t>lithium ions concentration</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.003771478879445377</v>
+        <v>0.004234569047345461</v>
       </c>
       <c r="D496" t="n">
         <v>1</v>
@@ -8376,14 +8376,14 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>lithium concentration</t>
+          <t>tetrahedral site occupancy</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.00429269817183616</v>
+        <v>0.001084777261100253</v>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="498">
@@ -8392,11 +8392,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>lithium ion contentas</t>
+          <t>charge carrier concentration</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.004325559738056418</v>
+        <v>0.002033579093972126</v>
       </c>
       <c r="D498" t="n">
         <v>1</v>
@@ -8408,14 +8408,14 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>carrier concentration</t>
+          <t>lithium charge carrier concentration</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.001541158597898269</v>
+        <v>0.003016510991824011</v>
       </c>
       <c r="D499" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -8424,14 +8424,14 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>ion per formula unit</t>
+          <t>overall parameter</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.002696101699644274</v>
+        <v>0.0007955697332072676</v>
       </c>
       <c r="D500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -8440,14 +8440,14 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>sodium per formula unit</t>
+          <t>formation energies</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.002163428570053298</v>
+        <v>0.001541262832361079</v>
       </c>
       <c r="D501" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="502">
@@ -8456,11 +8456,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>lithium ion concentration</t>
+          <t>formation energies materials</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0.005203898741234433</v>
+        <v>0.002553431260180652</v>
       </c>
       <c r="D502" t="n">
         <v>1</v>
@@ -8472,14 +8472,14 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>structural site occupancy</t>
+          <t>vacancy formation energy</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0.001594805792686135</v>
+        <v>0.002335476172383826</v>
       </c>
       <c r="D503" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -8488,14 +8488,14 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>lithium ions concentration</t>
+          <t>entropy migration</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0.004215217572664704</v>
+        <v>0.000708988736544693</v>
       </c>
       <c r="D504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -8504,141 +8504,13 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>tetrahedral site occupancy</t>
+          <t>energy landscaps</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0.00107981995860554</v>
+        <v>0.002179711044931759</v>
       </c>
       <c r="D505" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>charge carrier concentration</t>
-        </is>
-      </c>
-      <c r="C506" t="n">
-        <v>0.002024285880445949</v>
-      </c>
-      <c r="D506" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>lithium charge carrier concentration</t>
-        </is>
-      </c>
-      <c r="C507" t="n">
-        <v>0.003002725896946623</v>
-      </c>
-      <c r="D507" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>overall parameter</t>
-        </is>
-      </c>
-      <c r="C508" t="n">
-        <v>0.0007919340745660209</v>
-      </c>
-      <c r="D508" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>formation energies</t>
-        </is>
-      </c>
-      <c r="C509" t="n">
-        <v>0.0015342194453379</v>
-      </c>
-      <c r="D509" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>formation energies materials</t>
-        </is>
-      </c>
-      <c r="C510" t="n">
-        <v>0.002541762384356933</v>
-      </c>
-      <c r="D510" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>vacancy formation energy</t>
-        </is>
-      </c>
-      <c r="C511" t="n">
-        <v>0.002324803325274218</v>
-      </c>
-      <c r="D511" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>entropy migration</t>
-        </is>
-      </c>
-      <c r="C512" t="n">
-        <v>0.0007057487427151468</v>
-      </c>
-      <c r="D512" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>energy landscaps</t>
-        </is>
-      </c>
-      <c r="C513" t="n">
-        <v>0.002169750025846758</v>
-      </c>
-      <c r="D513" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/TF-IDF/result_all.xlsx
+++ b/data/TF-IDF/result_all.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0004547220583226896</v>
+        <v>0.0004547220583226897</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -616,14 +616,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minimum bt2 and bt1</t>
+          <t>bt1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01197324988552426</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -632,11 +632,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>average straight-line path width</t>
+          <t>bt2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0004408506866665528</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
+          <t>min_bt</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001445496167104675</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -664,14 +664,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
+          <t>conduction threshold</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001431316570787742</v>
+        <v>0.0009097359817060786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -680,11 +680,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
+          <t>minimum bt2 and bt1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002706852462183019</v>
+        <v>0.01197324988552426</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -696,11 +696,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bt1</t>
+          <t>average straight-line path width</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.0004408506866665528</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bt2</t>
+          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.001445496167104675</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -728,14 +728,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>min_bt</t>
+          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.001431316570787742</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -744,14 +744,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>conduction threshold</t>
+          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0009097359817060786</v>
+        <v>0.002706852462183019</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -808,11 +808,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>average shortest li-li separation distance</t>
+          <t>jump distance</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0004166309168426576</v>
+        <v>0.0004627799706183354</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>average shortest li-anion separation distance</t>
+          <t>average shortest li-li separation distance</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>average shortest anion-anion separation distance</t>
+          <t>average shortest li-anion separation distance</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -856,11 +856,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jump distance</t>
+          <t>average shortest anion-anion separation distance</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0004627799706183354</v>
+        <v>0.0004166309168426576</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -872,11 +872,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0007219496244341089</v>
+        <v>0.0004662520022254771</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -888,11 +888,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>average neighbor count</t>
+          <t>pathways</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0003351526163890713</v>
+        <v>0.000530063406420791</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -904,11 +904,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>average li-li bonds per</t>
+          <t>polyhedron</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0005946159880455006</v>
+        <v>9.553809781950385e-05</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>anion framework coordination</t>
+          <t>o octahedra</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.001133291711701337</v>
+        <v>0.002166935690605725</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -936,14 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>average sublattice neighbor count</t>
+          <t>ions channel</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0003039137352993998</v>
+        <v>0.002260653283738477</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -952,14 +952,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>standard deviation neighbor count</t>
+          <t>ion pathways</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0002772388563961365</v>
+        <v>0.003794310023538871</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -968,11 +968,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ratio average neighbor count average sublattice neighbor count</t>
+          <t>vo polyhedron</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0004726382119542091</v>
+        <v>7.816994658251535e-05</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -984,11 +984,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>channel radius</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0004662520022254771</v>
+        <v>0.0005684835986566309</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>diffusion area</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.000530063406420791</v>
+        <v>0.001676153040201592</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>polyhedron</t>
+          <t>diffusion path</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.553809781950385e-05</v>
+        <v>0.00125807137929855</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>o octahedra</t>
+          <t>ionic pathways</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002166935690605725</v>
+        <v>0.002486759873907118</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ions channel</t>
+          <t>migration path</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.002260653283738477</v>
+        <v>0.0007787912804611781</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ion pathways</t>
+          <t>migration paths</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.003794310023538871</v>
+        <v>0.0007036652214433035</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vo polyhedron</t>
+          <t>anion distances</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7.816994658251535e-05</v>
+        <v>0.0006004016812429595</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1096,11 +1096,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>channel radius</t>
+          <t>bottleneck area</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0005684835986566309</v>
+        <v>0.0008573697573699812</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>diffusion area</t>
+          <t>bottleneck size</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.001676153040201592</v>
+        <v>0.001420381081294884</v>
       </c>
       <c r="D43" t="n">
         <v>0.5</v>
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>diffusion path</t>
+          <t>channel section</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00125807137929855</v>
+        <v>0.0005337039477705092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1144,11 +1144,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ionic pathways</t>
+          <t>lithium pathway</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.002486759873907118</v>
+        <v>0.003215779343802573</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>migration path</t>
+          <t>na coordination</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0007787912804611781</v>
+        <v>0.004110416125202327</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>migration paths</t>
+          <t>al coordinations</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0007036652214433035</v>
+        <v>0.001811590788204502</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>anion distances</t>
+          <t>bottleneck width</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0006004016812429595</v>
+        <v>0.0004466228501727663</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bottleneck area</t>
+          <t>diffusion length</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.000857369757369981</v>
+        <v>0.001275047161613984</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bottleneck size</t>
+          <t>mobility pathway</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001420381081294884</v>
+        <v>0.0007987545138137747</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>channel section</t>
+          <t>coordinated anion</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0005337039477705092</v>
+        <v>0.000460662872352205</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1256,14 +1256,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lithium pathway</t>
+          <t>diffusion channel</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.003215779343802573</v>
+        <v>0.00126734937383086</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>na coordination</t>
+          <t>diffusion pathway</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004110416125202327</v>
+        <v>0.001279270313105694</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -1288,14 +1288,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>al coordinations</t>
+          <t>ionic coordinates</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.001811590788204502</v>
+        <v>0.002405739433481142</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1304,14 +1304,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bottleneck width</t>
+          <t>m bottleneck site</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0004466228501727662</v>
+        <v>0.002020290043919076</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>diffusion length</t>
+          <t>migration channel</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.001275047161613984</v>
+        <v>0.0007880692749934876</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mobility pathway</t>
+          <t>polyhedron volume</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0007987545138137746</v>
+        <v>0.0007303309180283305</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1352,11 +1352,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>coordinated anion</t>
+          <t>polyhedral mo6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.000460662872352205</v>
+        <v>0.0003395085401516957</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1368,14 +1368,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>diffusion channel</t>
+          <t>polyhedral xo4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.00126734937383086</v>
+        <v>0.0003213989389923606</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1384,14 +1384,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>diffusion pathway</t>
+          <t>polyhedral na1o6</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.001279270313105694</v>
+        <v>9.563580701538487e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1400,14 +1400,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ionic coordinates</t>
+          <t>polyhedral na2o8</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.002405739433481142</v>
+        <v>9.563580701538487e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>m bottleneck site</t>
+          <t>polyhedral na3o5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.002020290043919076</v>
+        <v>9.563580701538487e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>migration channel</t>
+          <t>mean jump distance</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0007880692749934876</v>
+        <v>0.0004429852015150521</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1448,11 +1448,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>polyhedron volume</t>
+          <t>atomic coordinates</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0007303309180283305</v>
+        <v>0.000570484286114187</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>polyhedral mo6</t>
+          <t>diffusion distance</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0003395085401516958</v>
+        <v>0.00139170009660713</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
@@ -1480,14 +1480,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>polyhedral xo4</t>
+          <t>migration channels</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0003213989389923606</v>
+        <v>0.0009618381228685643</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>polyhedral na1o6</t>
+          <t>conducting pathway</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9.563580701538489e-05</v>
+        <v>0.001141548573057811</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>polyhedral na2o8</t>
+          <t>diffusion channels</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.563580701538489e-05</v>
+        <v>0.001441118221705936</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
@@ -1528,14 +1528,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>polyhedral na3o5</t>
+          <t>diffusion pathways</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9.563580701538489e-05</v>
+        <v>0.001311176015203351</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mean jump distance</t>
+          <t>bottleneck geometry</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0004429852015150521</v>
+        <v>0.0003998977319705685</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>atomic coordinates</t>
+          <t>conduction pathways</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.000570484286114187</v>
+        <v>0.001099513962226437</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
@@ -1576,14 +1576,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>diffusion distance</t>
+          <t>transport pathway</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.00139170009660713</v>
+        <v>0.0009252220766417165</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>migration channels</t>
+          <t>na diffusion channels</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0009618381228685643</v>
+        <v>0.003460373023127473</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>conducting pathway</t>
+          <t>bottleneck m positions</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001141548573057811</v>
+        <v>0.00170444828238757</v>
       </c>
       <c r="D74" t="n">
         <v>0.5</v>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>diffusion channels</t>
+          <t>ion conduction pathway</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001441118221705936</v>
+        <v>0.00306459105363817</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>diffusion pathways</t>
+          <t>coordination polyhedron</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001311176015203351</v>
+        <v>0.0004087438611268063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1656,11 +1656,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bottleneck geometry</t>
+          <t>migration coordinate</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0003998977319705684</v>
+        <v>0.000662910466690502</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1672,14 +1672,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>conduction pathways</t>
+          <t>zr + ion conducting pathway</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001099513962226437</v>
+        <v>0.00219869388508842</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1688,14 +1688,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>transport pathway</t>
+          <t>sodium oxygen interatomic distance</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0009252220766417165</v>
+        <v>0.001923134926985153</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80">
@@ -1704,14 +1704,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>na diffusion channels</t>
+          <t>dimensional atomic migration channels</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.003460373023127473</v>
+        <v>0.0009104245416282061</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1720,14 +1720,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bottleneck m positions</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.00170444828238757</v>
+        <v>0.0007219496244341089</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ion conduction pathway</t>
+          <t>standard deviation neighbor count</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.00306459105363817</v>
+        <v>0.0002772388563961365</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1752,11 +1752,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>coordination polyhedron</t>
+          <t>average neighbor count</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0004087438611268063</v>
+        <v>0.0003351526163890713</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1768,11 +1768,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>migration coordinate</t>
+          <t>average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.000662910466690502</v>
+        <v>0.0003039137352993999</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1784,14 +1784,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>zr + ion conducting pathway</t>
+          <t>anion framework coordination</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.00219869388508842</v>
+        <v>0.001133291711701337</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sodium oxygen interatomic distance</t>
+          <t>average li-li bonds per</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.001923134926985153</v>
+        <v>0.0005946159880455006</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dimensional atomic migration channels</t>
+          <t>ratio average neighbor count average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0009104245416282061</v>
+        <v>0.0004726382119542091</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.003112969082825377</v>
+        <v>0.003112969082825378</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.01125334138070249</v>
+        <v>0.0112533413807025</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2056,11 +2056,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>configurational entropy na+</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0001065012513025654</v>
+        <v>2.460658295174684e-06</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2072,14 +2072,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 6b site</t>
+          <t>lattice distortion</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0005649033701903714</v>
+        <v>0.001323463838498494</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 18e site</t>
+          <t>configurate entropy</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0005393800968198916</v>
+        <v>0.0001421245233891093</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2104,14 +2104,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 36f site</t>
+          <t>configuration entropy na 6b</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0005155779514640215</v>
+        <v>0.002136070768422065</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2120,14 +2120,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>configurational entropy cationic m site</t>
+          <t>configuration entropy na 18e</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.001260845620802659</v>
+        <v>0.002104166676708965</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2136,11 +2136,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>configurational entropy cationic x site</t>
+          <t>configuration entropy na 36f</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.001937100409961637</v>
+        <v>0.002074413995014127</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2152,14 +2152,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>configuration entropy na all</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2.460658295174684e-06</v>
+        <v>0.002834882149106796</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lattice distortion</t>
+          <t>configuration entropy m</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.001323463838498493</v>
+        <v>0.001382178474702697</v>
       </c>
       <c r="D109" t="n">
         <v>0.5</v>
@@ -2184,14 +2184,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>configurate entropy</t>
+          <t>configuration entropy x</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0001421245233891093</v>
+        <v>0.00250926978996766</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2200,14 +2200,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>configuration entropy na 6b</t>
+          <t>configurational entropy na+</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.002136070768422065</v>
+        <v>0.0001065012513025654</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>configuration entropy na 18e</t>
+          <t>configurational entropy na+ 6b site</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.002104166676708965</v>
+        <v>0.0005649033701903714</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2232,14 +2232,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>configuration entropy na 36f</t>
+          <t>configurational entropy na+ 18e site</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.002074413995014127</v>
+        <v>0.0005393800968198916</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2248,14 +2248,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>configuration entropy na all</t>
+          <t>configurational entropy na+ 36f site</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.002834882149106796</v>
+        <v>0.0005155779514640215</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2264,11 +2264,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>configuration entropy m</t>
+          <t>configurational entropy cationic m site</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.001382178474702697</v>
+        <v>0.001260845620802659</v>
       </c>
       <c r="D115" t="n">
         <v>0.5</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>configuration entropy x</t>
+          <t>configurational entropy cationic x site</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.00250926978996766</v>
+        <v>0.001937100409961638</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405747</v>
+        <v>0.0005539660761405745</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001137238343274639</v>
+        <v>0.001137238343274638</v>
       </c>
       <c r="D120" t="n">
         <v>0.5</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009550446629658615</v>
+        <v>0.0009550446629658617</v>
       </c>
       <c r="D121" t="n">
         <v>0.5</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580388</v>
+        <v>0.001178628110580389</v>
       </c>
       <c r="D146" t="n">
         <v>0.5</v>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.000536880687523946</v>
+        <v>0.0005368806875239458</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.003586548474760682</v>
+        <v>0.003586548474760681</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.001746033049348201</v>
+        <v>0.001746033049348202</v>
       </c>
       <c r="D166" t="n">
         <v>0.5</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001543626170956491</v>
+        <v>0.001543626170956492</v>
       </c>
       <c r="D180" t="n">
         <v>0.5</v>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.00125615864299365</v>
+        <v>0.001256158642993651</v>
       </c>
       <c r="D185" t="n">
         <v>0.5</v>
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.004101724776200212</v>
+        <v>0.004101724776200211</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.002257040725385109</v>
+        <v>0.00225704072538511</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.001562511849154044</v>
+        <v>0.001562511849154045</v>
       </c>
       <c r="D202" t="n">
         <v>0.5</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.001860604473485499</v>
+        <v>0.0018606044734855</v>
       </c>
       <c r="D213" t="n">
         <v>0.5</v>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001470508898221263</v>
+        <v>0.001470508898221264</v>
       </c>
       <c r="D215" t="n">
         <v>0.5</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.002191318531156148</v>
+        <v>0.002191318531156149</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.001111078500584515</v>
+        <v>0.001111078500584516</v>
       </c>
       <c r="D223" t="n">
         <v>0.5</v>
@@ -4056,14 +4056,14 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>temperature structure is measured</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.008510643518455624</v>
+        <v>0.001291618145305144</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228">
@@ -4072,14 +4072,14 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.001291618145305144</v>
+        <v>0.0005192980759577845</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4088,11 +4088,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>porosity</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.0005192980759577845</v>
+        <v>0.0008571382493460673</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -4104,14 +4104,14 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.0008571382493460674</v>
+        <v>0.007133312044343209</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -4120,11 +4120,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>high porosity</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.007133312044343209</v>
+        <v>0.003380699845740061</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -4136,11 +4136,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>high porosity</t>
+          <t>high pressure</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.003380699845740061</v>
+        <v>0.003766859880413741</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -4152,14 +4152,14 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>high pressure</t>
+          <t>lower porosity</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.003766859880413741</v>
+        <v>0.001182585372839509</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>lower porosity</t>
+          <t>oxygen pressure</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.001182585372839509</v>
+        <v>0.001586292039812184</v>
       </c>
       <c r="D234" t="n">
         <v>0.5</v>
@@ -4184,14 +4184,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>oxygen pressure</t>
+          <t>room temperature</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.001586292039812184</v>
+        <v>0.004695200402636743</v>
       </c>
       <c r="D235" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -4200,14 +4200,14 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>room temperature</t>
+          <t>constant pressure</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.004695200402636743</v>
+        <v>0.001325738282527213</v>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="237">
@@ -4216,14 +4216,14 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>constant pressure</t>
+          <t>electrode porosity</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.001325738282527213</v>
+        <v>0.003082617593899171</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -4232,11 +4232,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>electrode porosity</t>
+          <t>high oxygen pressure</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.003082617593899172</v>
+        <v>0.003138228565048902</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -4248,11 +4248,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>high oxygen pressure</t>
+          <t>absolute temperature</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.003138228565048902</v>
+        <v>0.003738649907983262</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -4264,11 +4264,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>absolute temperature</t>
+          <t>high oxygen pressures</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.003738649907983262</v>
+        <v>0.002784560351699376</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>high oxygen pressures</t>
+          <t>high room temperature</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.002784560351699376</v>
+        <v>0.005210834140265275</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -4296,11 +4296,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>high room temperature</t>
+          <t>increasing temperature</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.005210834140265275</v>
+        <v>0.004319186124536074</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -4312,14 +4312,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>increasing temperature</t>
+          <t>characteristic parameters</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.004319186124536074</v>
+        <v>0.001444656393823447</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="244">
@@ -4328,14 +4328,14 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>characteristic parameters</t>
+          <t>characteristic temperature</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.001444656393823447</v>
+        <v>0.003916875655204954</v>
       </c>
       <c r="D244" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -4344,11 +4344,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>characteristic temperature</t>
+          <t>room temperature condition</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.003916875655204954</v>
+        <v>0.003306495071538911</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>room temperature condition</t>
+          <t>temperature structure is measured</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.003306495071538911</v>
+        <v>0.008510643518455624</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>energy landscape</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.004359422089863518</v>
+        <v>0.002207056437373055</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -4408,14 +4408,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ewald summation energy</t>
+          <t>migration energy</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.001476053178478678</v>
+        <v>0.002746575258087343</v>
       </c>
       <c r="D249" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -4424,11 +4424,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>formation energy competing phases</t>
+          <t>potential energy</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.002202768836370649</v>
+        <v>0.003499744367321371</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -4440,14 +4440,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>energy landscape</t>
+          <t>migration entropy</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.002207056437373055</v>
+        <v>0.000708988736544693</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -4456,11 +4456,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>migration energy</t>
+          <t>gibbs energy change</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.002746575258087343</v>
+        <v>0.001958372093651834</v>
       </c>
       <c r="D252" t="n">
         <v>1</v>
@@ -4472,14 +4472,14 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>potential energy</t>
+          <t>oxygen vacancy formation</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.003499744367321371</v>
+        <v>0.001509324120535727</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="254">
@@ -4488,14 +4488,14 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>migration entropy</t>
+          <t>site energy landscapes</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.000708988736544693</v>
+        <v>0.002166541157013006</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>gibbs energy change</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.001958372093651834</v>
+        <v>0.004359422089863518</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -4520,14 +4520,14 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>oxygen vacancy formation</t>
+          <t>formation energy competing phases</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.001509324120535727</v>
+        <v>0.002202768836370649</v>
       </c>
       <c r="D256" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -4536,14 +4536,14 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>site energy landscapes</t>
+          <t>ewald summation energy</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.002166541157013006</v>
+        <v>0.001476053178478678</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="258">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693307</v>
+        <v>0.0007838477203693304</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.000852461307246853</v>
+        <v>0.0008524613072468531</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>r_m_avg/r_na</t>
+          <t>radius m1</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>0.001234630422278062</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="281">
@@ -4920,14 +4920,14 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ionic radius na</t>
+          <t>radius m2</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.004212298680333814</v>
+        <v>0.001031730750283539</v>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282">
@@ -4936,14 +4936,14 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>average radius m site</t>
+          <t>radius x1</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.001800432529276043</v>
+        <v>0.0003703109925225022</v>
       </c>
       <c r="D282" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4952,14 +4952,14 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>average radius a site</t>
+          <t>radius x2</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.008615739872973623</v>
+        <v>0.000377583481644846</v>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4968,14 +4968,14 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ionic radius element m1</t>
+          <t>effective mean ionic radius m</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.001921388752054736</v>
+        <v>0.00197892717205667</v>
       </c>
       <c r="D284" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -4984,14 +4984,14 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ionic radius element m2</t>
+          <t>effective mean ionic radius x</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.001819938916057475</v>
+        <v>0.002655181961215648</v>
       </c>
       <c r="D285" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -5000,14 +5000,14 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ionic radius element x1</t>
+          <t>r_m_avg/r_na</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.001489229037176956</v>
+        <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5016,14 +5016,14 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ionic radius element x2</t>
+          <t>ionic radius na</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.001492865281738128</v>
+        <v>0.004212298680333814</v>
       </c>
       <c r="D287" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -5032,11 +5032,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>maximum deviation radius m site</t>
+          <t>average radius m site</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.001531627705409612</v>
+        <v>0.001800432529276043</v>
       </c>
       <c r="D288" t="n">
         <v>0.5</v>
@@ -5048,11 +5048,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>maximum deviation radius a site</t>
+          <t>average radius a site</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.006983873580367677</v>
+        <v>0.008615739872973623</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
@@ -5064,11 +5064,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>standard deviation radius m site</t>
+          <t>ionic radius element m1</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.001461045538704301</v>
+        <v>0.001921388752054736</v>
       </c>
       <c r="D290" t="n">
         <v>0.5</v>
@@ -5080,14 +5080,14 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>standard deviation radius a site</t>
+          <t>ionic radius element m2</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.006913291413662366</v>
+        <v>0.001819938916057475</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="292">
@@ -5096,14 +5096,14 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>average effective ionic radius m site</t>
+          <t>ionic radius element x1</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.002087744972420328</v>
+        <v>0.001489229037176956</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="293">
@@ -5112,14 +5112,14 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>average effective ionic radius x site</t>
+          <t>ionic radius element x2</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.002651290630052809</v>
+        <v>0.001492865281738128</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294">
@@ -5128,11 +5128,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ionic radius formulaic leftmost dopant</t>
+          <t>maximum deviation radius m site</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.001101651578942371</v>
+        <v>0.001531627705409612</v>
       </c>
       <c r="D294" t="n">
         <v>0.5</v>
@@ -5144,14 +5144,14 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ionic radius formulaic rightmost dopant</t>
+          <t>maximum deviation radius a site</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.001101651578942371</v>
+        <v>0.006983873580367677</v>
       </c>
       <c r="D295" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -5160,11 +5160,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulana</t>
+          <t>standard deviation radius m site</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.001458940579302185</v>
+        <v>0.001461045538704301</v>
       </c>
       <c r="D296" t="n">
         <v>0.5</v>
@@ -5176,14 +5176,14 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad2</t>
+          <t>standard deviation radius a site</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.001458614913745223</v>
+        <v>0.006913291413662366</v>
       </c>
       <c r="D297" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -5192,14 +5192,14 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad3</t>
+          <t>average effective ionic radius m site</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.001458614913745223</v>
+        <v>0.002087744972420328</v>
       </c>
       <c r="D298" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -5208,14 +5208,14 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>radius m1</t>
+          <t>average effective ionic radius x site</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.001234630422278062</v>
+        <v>0.00265129063005281</v>
       </c>
       <c r="D299" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>radius m2</t>
+          <t>ionic radius formulaic leftmost dopant</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.001031730750283539</v>
+        <v>0.001101651578942371</v>
       </c>
       <c r="D300" t="n">
         <v>0.5</v>
@@ -5240,14 +5240,14 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>radius x1</t>
+          <t>ionic radius formulaic rightmost dopant</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.0003703109925225022</v>
+        <v>0.001101651578942371</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="302">
@@ -5256,14 +5256,14 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>radius x2</t>
+          <t>calculated effective ionic radius according formulana</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.000377583481644846</v>
+        <v>0.001458940579302185</v>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="303">
@@ -5272,14 +5272,14 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>effective mean ionic radius m</t>
+          <t>calculated effective ionic radius according formulad2</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.00197892717205667</v>
+        <v>0.001458614913745223</v>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="304">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>effective mean ionic radius x</t>
+          <t>calculated effective ionic radius according formulad3</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.002655181961215648</v>
+        <v>0.001458614913745223</v>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="305">
@@ -5320,14 +5320,14 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>volume na</t>
+          <t>volume m1</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.004432003182103851</v>
+        <v>0.001569913754577913</v>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
@@ -5336,14 +5336,14 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>volume d2</t>
+          <t>volume m2</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.0007199976523165851</v>
+        <v>0.00136701408258339</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="308">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>volume d3</t>
+          <t>volume x1</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.0007036030149647164</v>
+        <v>0.0007055943248223536</v>
       </c>
       <c r="D308" t="n">
         <v>0</v>
@@ -5368,11 +5368,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>volume per anion</t>
+          <t>volume x2</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.0009208424082509608</v>
+        <v>0.0007128668139446975</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
@@ -5384,11 +5384,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>calculated effective volume species d1 according formula na</t>
+          <t>effective mean volume m</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.001857928280633279</v>
+        <v>0.001530436545872402</v>
       </c>
       <c r="D310" t="n">
         <v>0.5</v>
@@ -5400,14 +5400,14 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>calculated effective volume species d2 according formula d2</t>
+          <t>effective mean volume x</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0009311472595299261</v>
+        <v>0.002375755032321125</v>
       </c>
       <c r="D311" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -5416,14 +5416,14 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>calculated effective volume species d3 according formula d3</t>
+          <t>volume na</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0009229499408539918</v>
+        <v>0.004432003182103851</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -5432,14 +5432,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>volume m1</t>
+          <t>volume d2</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.001569913754577913</v>
+        <v>0.0007199976523165851</v>
       </c>
       <c r="D313" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -5448,14 +5448,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>volume m2</t>
+          <t>volume d3</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.00136701408258339</v>
+        <v>0.0007036030149647164</v>
       </c>
       <c r="D314" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -5464,11 +5464,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>volume x1</t>
+          <t>volume per anion</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.0007055943248223536</v>
+        <v>0.0009208424082509607</v>
       </c>
       <c r="D315" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>volume x2</t>
+          <t>calculated effective volume species d1 according formula na</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.0007128668139446975</v>
+        <v>0.001857928280633279</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="317">
@@ -5496,11 +5496,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>effective mean volume m</t>
+          <t>calculated effective volume species d2 according formula d2</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.001530436545872402</v>
+        <v>0.000931147259529926</v>
       </c>
       <c r="D317" t="n">
         <v>0.5</v>
@@ -5512,14 +5512,14 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>effective mean volume x</t>
+          <t>calculated effective volume species d3 according formula d3</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.002375755032321125</v>
+        <v>0.0009229499408539918</v>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -5544,11 +5544,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>valence element m1</t>
+          <t>valence m1</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.001121864099506239</v>
+        <v>0.001296377238124671</v>
       </c>
       <c r="D320" t="n">
         <v>0.5</v>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>valence element m2</t>
+          <t>valence m2</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0009865976515098904</v>
+        <v>0.001093477566130148</v>
       </c>
       <c r="D321" t="n">
         <v>0.5</v>
@@ -5576,11 +5576,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>valence element x1</t>
+          <t>valence x1</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.000545651146335866</v>
+        <v>0.0004320578083691112</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -5592,11 +5592,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>valence element x2</t>
+          <t>valence x2</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.0005504994724174285</v>
+        <v>0.0004393302974914551</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -5608,14 +5608,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>average ionic charge states m site</t>
+          <t>effective mean valence m</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.002434881002279985</v>
+        <v>0.001393668287645781</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="325">
@@ -5624,11 +5624,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>average ionic charge states a site</t>
+          <t>effective mean valence x</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.006978419231411706</v>
+        <v>0.002238986774094503</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -5640,14 +5640,14 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>average effective ionic valence m site</t>
+          <t>valence element m1</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.002108327244369197</v>
+        <v>0.001121864099506239</v>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="327">
@@ -5656,14 +5656,14 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>average effective ionic valence x site</t>
+          <t>valence element m2</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.002671872902001679</v>
+        <v>0.0009865976515098904</v>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="328">
@@ -5672,14 +5672,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states m site</t>
+          <t>valence element x1</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.002152242060517686</v>
+        <v>0.000545651146335866</v>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -5688,14 +5688,14 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states a site</t>
+          <t>valence element x2</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.006046703399773447</v>
+        <v>0.0005504994724174285</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states m site</t>
+          <t>average ionic charge states m site</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.002101826227156749</v>
+        <v>0.002434881002279985</v>
       </c>
       <c r="D330" t="n">
         <v>1</v>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states a site</t>
+          <t>average ionic charge states a site</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.00599628756641251</v>
+        <v>0.006978419231411706</v>
       </c>
       <c r="D331" t="n">
         <v>1</v>
@@ -5736,14 +5736,14 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>valence m1</t>
+          <t>average effective ionic valence m site</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.001296377238124671</v>
+        <v>0.002108327244369197</v>
       </c>
       <c r="D332" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -5752,14 +5752,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>valence m2</t>
+          <t>average effective ionic valence x site</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.001093477566130148</v>
+        <v>0.00267187290200168</v>
       </c>
       <c r="D333" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -5768,14 +5768,14 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>valence x1</t>
+          <t>maximum deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.0004320578083691112</v>
+        <v>0.002152242060517686</v>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>valence x2</t>
+          <t>maximum deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.0004393302974914551</v>
+        <v>0.006046703399773447</v>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -5800,14 +5800,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>effective mean valence m</t>
+          <t>standard deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.001393668287645781</v>
+        <v>0.002101826227156749</v>
       </c>
       <c r="D336" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -5816,11 +5816,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>effective mean valence x</t>
+          <t>standard deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.002238986774094503</v>
+        <v>0.00599628756641251</v>
       </c>
       <c r="D337" t="n">
         <v>1</v>
@@ -5848,14 +5848,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>x_m_avg-x_a</t>
+          <t>electronegativity m1</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>0.0009976443453290035</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="340">
@@ -5864,11 +5864,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>x_m_avg-x_na</t>
+          <t>electronegativity m2</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>0.00079474467333448</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
@@ -5880,14 +5880,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>electronegativity na</t>
+          <t>electronegativity x1</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.003859733772854941</v>
+        <v>0.0001333249155734435</v>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -5896,11 +5896,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>electronegativity dopant d2</t>
+          <t>electronegativity x2</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.0002203188044906544</v>
+        <v>0.0001405974046957873</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -5912,14 +5912,14 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>electronegativity dopant d3</t>
+          <t>effective mean element electronegativity m</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.0002093890462560754</v>
+        <v>0.001150009037452233</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344">
@@ -5928,14 +5928,14 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>electronegativity element m1</t>
+          <t>effective mean element electronegativity x</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.0009227088376424607</v>
+        <v>0.001826263826611211</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="345">
@@ -5944,11 +5944,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>electronegativity element m2</t>
+          <t>x_m_avg-x_a</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.0007874423896461118</v>
+        <v>0</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -5960,11 +5960,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>electronegativity element x1</t>
+          <t>x_m_avg-x_na</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.0003464958844720874</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
         <v>0</v>
@@ -5976,14 +5976,14 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>electronegativity element x2</t>
+          <t>electronegativity na</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.0003513442105536499</v>
+        <v>0.003859733772854941</v>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -5992,14 +5992,14 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>average electronegativity m site</t>
+          <t>electronegativity dopant d2</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.001681939490801513</v>
+        <v>0.0002203188044906544</v>
       </c>
       <c r="D348" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -6008,14 +6008,14 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>average electronegativity a site</t>
+          <t>electronegativity dopant d3</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.008497246834499095</v>
+        <v>0.0002093890462560754</v>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -6024,14 +6024,14 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>average effective electronegativity m site</t>
+          <t>electronegativity element m1</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.001521808267846081</v>
+        <v>0.0009227088376424607</v>
       </c>
       <c r="D350" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -6040,14 +6040,14 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>average effective electronegativity x site</t>
+          <t>electronegativity element m2</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.002198063057005059</v>
+        <v>0.0007874423896461118</v>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -6056,14 +6056,14 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity m site</t>
+          <t>electronegativity element x1</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.001436833274629989</v>
+        <v>0.0003464958844720874</v>
       </c>
       <c r="D352" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -6072,14 +6072,14 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity a site</t>
+          <t>electronegativity element x2</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.006889079149588054</v>
+        <v>0.0003513442105536499</v>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -6088,11 +6088,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity m site</t>
+          <t>average electronegativity m site</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.001366251107924677</v>
+        <v>0.001681939490801513</v>
       </c>
       <c r="D354" t="n">
         <v>0.5</v>
@@ -6104,11 +6104,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity a site</t>
+          <t>average electronegativity a site</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.006818496982882742</v>
+        <v>0.008497246834499095</v>
       </c>
       <c r="D355" t="n">
         <v>1</v>
@@ -6120,14 +6120,14 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula na</t>
+          <t>average effective electronegativity m site</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.002076174567058643</v>
+        <v>0.001521808267846081</v>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="357">
@@ -6136,14 +6136,14 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d2</t>
+          <t>average effective electronegativity x site</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.0008388393904628878</v>
+        <v>0.002198063057005059</v>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -6152,14 +6152,14 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d3</t>
+          <t>maximum deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.0008333745113455984</v>
+        <v>0.001436833274629989</v>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="359">
@@ -6168,14 +6168,14 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>electronegativity m1</t>
+          <t>maximum deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.0009976443453290035</v>
+        <v>0.006889079149588054</v>
       </c>
       <c r="D359" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -6184,14 +6184,14 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>electronegativity m2</t>
+          <t>standard deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.00079474467333448</v>
+        <v>0.001366251107924677</v>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361">
@@ -6200,14 +6200,14 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>electronegativity x1</t>
+          <t>standard deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.0001333249155734435</v>
+        <v>0.006818496982882742</v>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -6216,14 +6216,14 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>electronegativity x2</t>
+          <t>calculated effective electronegativity according formula na</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.0001405974046957873</v>
+        <v>0.002076174567058643</v>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -6232,14 +6232,14 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity m</t>
+          <t>calculated effective electronegativity according formula d2</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.001150009037452232</v>
+        <v>0.0008388393904628876</v>
       </c>
       <c r="D363" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -6248,14 +6248,14 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity x</t>
+          <t>calculated effective electronegativity according formula d3</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.001826263826611211</v>
+        <v>0.0008333745113455982</v>
       </c>
       <c r="D364" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6.720949597350403e-05</v>
+        <v>6.720949597350402e-05</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548232</v>
+        <v>0.001280866176548231</v>
       </c>
       <c r="D372" t="n">
         <v>0.5</v>
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.00196891777563211</v>
+        <v>0.001968917775632111</v>
       </c>
       <c r="D373" t="n">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.002298593047424964</v>
+        <v>0.002298593047424965</v>
       </c>
       <c r="D388" t="n">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7.073525838704283e-05</v>
+        <v>7.073525838704285e-05</v>
       </c>
       <c r="D393" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.000736218867717932</v>
+        <v>0.0007362188677179321</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -7336,11 +7336,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>na content</t>
+          <t>stoichiometric species na according formula</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.004651269131280118</v>
+        <v>0.002337618446657718</v>
       </c>
       <c r="D432" t="n">
         <v>1</v>
@@ -7352,14 +7352,14 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>na+ concentration</t>
+          <t>na content</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.001329752006427784</v>
+        <v>0.004651269131280118</v>
       </c>
       <c r="D433" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -7368,11 +7368,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>stoichiometric species m according formula</t>
+          <t>na+ concentration</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.001532230602647532</v>
+        <v>0.001329752006427784</v>
       </c>
       <c r="D434" t="n">
         <v>0.5</v>
@@ -7384,14 +7384,14 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>stoichiometric species na according formula</t>
+          <t>stoichiometric species m according formula</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.002337618446657718</v>
+        <v>0.001532230602647532</v>
       </c>
       <c r="D435" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="436">
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.003605113939389533</v>
+        <v>0.003605113939389532</v>
       </c>
       <c r="D436" t="n">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.004022120581204184</v>
+        <v>0.004022120581204183</v>
       </c>
       <c r="D451" t="n">
         <v>1</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.003650223372555149</v>
+        <v>0.00365022337255515</v>
       </c>
       <c r="D481" t="n">
         <v>1</v>

--- a/data/TF-IDF/result_all.xlsx
+++ b/data/TF-IDF/result_all.xlsx
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009097359817060786</v>
+        <v>0.0009097359817060787</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0008948576992959364</v>
+        <v>0.0008948576992959365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000530063406420791</v>
+        <v>0.0005300634064207911</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.553809781950385e-05</v>
+        <v>9.553809781950386e-05</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0007987545138137747</v>
+        <v>0.0007987545138137746</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0004087438611268063</v>
+        <v>0.0004087438611268064</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.000662910466690502</v>
+        <v>0.0006629104666905018</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.003112969082825378</v>
+        <v>0.003112969082825377</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.001054815187755618</v>
+        <v>0.001054815187755617</v>
       </c>
       <c r="D100" t="n">
         <v>0.5</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.001937100409961638</v>
+        <v>0.001937100409961637</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405745</v>
+        <v>0.0005539660761405747</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009550446629658617</v>
+        <v>0.0009550446629658615</v>
       </c>
       <c r="D121" t="n">
         <v>0.5</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580389</v>
+        <v>0.001178628110580388</v>
       </c>
       <c r="D146" t="n">
         <v>0.5</v>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0005368806875239458</v>
+        <v>0.0005368806875239459</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.003586548474760681</v>
+        <v>0.003586548474760682</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.002449126469476327</v>
+        <v>0.002449126469476328</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.0005712414410057666</v>
+        <v>0.0005712414410057665</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001543626170956492</v>
+        <v>0.001543626170956491</v>
       </c>
       <c r="D180" t="n">
         <v>0.5</v>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0009230472999397945</v>
+        <v>0.0009230472999397947</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.001256158642993651</v>
+        <v>0.00125615864299365</v>
       </c>
       <c r="D185" t="n">
         <v>0.5</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.0004690103210791399</v>
+        <v>0.0004690103210791398</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.004101724776200211</v>
+        <v>0.004101724776200212</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.00225704072538511</v>
+        <v>0.002257040725385109</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.001562511849154045</v>
+        <v>0.001562511849154044</v>
       </c>
       <c r="D202" t="n">
         <v>0.5</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.0018606044734855</v>
+        <v>0.001860604473485499</v>
       </c>
       <c r="D213" t="n">
         <v>0.5</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.001111078500584516</v>
+        <v>0.001111078500584515</v>
       </c>
       <c r="D223" t="n">
         <v>0.5</v>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.0005192980759577845</v>
+        <v>0.0005192980759577844</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.001182585372839509</v>
+        <v>0.001182585372839508</v>
       </c>
       <c r="D233" t="n">
         <v>0.5</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693304</v>
+        <v>0.0007838477203693307</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0005033512943713236</v>
+        <v>0.0005033512943713237</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.000931147259529926</v>
+        <v>0.0009311472595299261</v>
       </c>
       <c r="D317" t="n">
         <v>0.5</v>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.00267187290200168</v>
+        <v>0.002671872902001679</v>
       </c>
       <c r="D333" t="n">
         <v>1</v>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.0008388393904628876</v>
+        <v>0.0008388393904628878</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.0008333745113455982</v>
+        <v>0.0008333745113455984</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548231</v>
+        <v>0.001280866176548232</v>
       </c>
       <c r="D372" t="n">
         <v>0.5</v>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.002298593047424965</v>
+        <v>0.002298593047424964</v>
       </c>
       <c r="D388" t="n">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7.073525838704285e-05</v>
+        <v>7.073525838704283e-05</v>
       </c>
       <c r="D393" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.0007362188677179321</v>
+        <v>0.000736218867717932</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0006053509987598972</v>
+        <v>0.0006053509987598973</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.002588462471217056</v>
+        <v>0.002588462471217055</v>
       </c>
       <c r="D439" t="n">
         <v>1</v>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.002008650971178719</v>
+        <v>0.002008650971178718</v>
       </c>
       <c r="D449" t="n">
         <v>1</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.001559254954867141</v>
+        <v>0.001559254954867142</v>
       </c>
       <c r="D452" t="n">
         <v>0.5</v>
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.000873933936576687</v>
+        <v>0.0008739339365766871</v>
       </c>
       <c r="D454" t="n">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.0005131731318931881</v>
+        <v>0.000513173131893188</v>
       </c>
       <c r="D456" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.00365022337255515</v>
+        <v>0.003650223372555149</v>
       </c>
       <c r="D481" t="n">
         <v>1</v>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.0003452107280363168</v>
+        <v>0.0003452107280363169</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>

--- a/data/TF-IDF/result_all.xlsx
+++ b/data/TF-IDF/result_all.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0004547220583226897</v>
+        <v>0.0004547220583226896</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009097359817060787</v>
+        <v>0.0009097359817060786</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0008948576992959365</v>
+        <v>0.0008948576992959364</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0005300634064207911</v>
+        <v>0.000530063406420791</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0008573697573699812</v>
+        <v>0.000857369757369981</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0004466228501727663</v>
+        <v>0.0004466228501727662</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0003998977319705685</v>
+        <v>0.0003998977319705684</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0006629104666905018</v>
+        <v>0.000662910466690502</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.001054815187755617</v>
+        <v>0.001054815187755618</v>
       </c>
       <c r="D100" t="n">
         <v>0.5</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405747</v>
+        <v>0.0005539660761405746</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001137238343274638</v>
+        <v>0.001137238343274639</v>
       </c>
       <c r="D120" t="n">
         <v>0.5</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0007400873456976665</v>
+        <v>0.0007400873456976664</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580388</v>
+        <v>0.001178628110580389</v>
       </c>
       <c r="D146" t="n">
         <v>0.5</v>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0005368806875239459</v>
+        <v>0.0005368806875239458</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.002449126469476328</v>
+        <v>0.002449126469476327</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001543626170956491</v>
+        <v>0.001543626170956492</v>
       </c>
       <c r="D180" t="n">
         <v>0.5</v>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.00125615864299365</v>
+        <v>0.001256158642993651</v>
       </c>
       <c r="D185" t="n">
         <v>0.5</v>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.002257040725385109</v>
+        <v>0.00225704072538511</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.001860604473485499</v>
+        <v>0.0018606044734855</v>
       </c>
       <c r="D213" t="n">
         <v>0.5</v>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001470508898221264</v>
+        <v>0.001470508898221263</v>
       </c>
       <c r="D215" t="n">
         <v>0.5</v>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.0005192980759577844</v>
+        <v>0.0005192980759577845</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.001182585372839508</v>
+        <v>0.001182585372839509</v>
       </c>
       <c r="D233" t="n">
         <v>0.5</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693307</v>
+        <v>0.0007838477203693305</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0005033512943713237</v>
+        <v>0.0005033512943713236</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.0009311472595299261</v>
+        <v>0.000931147259529926</v>
       </c>
       <c r="D317" t="n">
         <v>0.5</v>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.0008388393904628878</v>
+        <v>0.0008388393904628876</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.0008333745113455984</v>
+        <v>0.0008333745113455982</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6.720949597350402e-05</v>
+        <v>6.720949597350403e-05</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548232</v>
+        <v>0.001280866176548231</v>
       </c>
       <c r="D372" t="n">
         <v>0.5</v>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>8.086062712184776e-05</v>
+        <v>8.086062712184775e-05</v>
       </c>
       <c r="D389" t="n">
         <v>0</v>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.001783021302593484</v>
+        <v>0.001783021302593485</v>
       </c>
       <c r="D419" t="n">
         <v>0.5</v>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0006053509987598973</v>
+        <v>0.0006053509987598972</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.001559254954867142</v>
+        <v>0.001559254954867141</v>
       </c>
       <c r="D452" t="n">
         <v>0.5</v>
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.0008739339365766871</v>
+        <v>0.000873933936576687</v>
       </c>
       <c r="D454" t="n">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.0003452107280363169</v>
+        <v>0.0003452107280363168</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.0007955697332072676</v>
+        <v>0.0007955697332072675</v>
       </c>
       <c r="D500" t="n">
         <v>0</v>

--- a/data/TF-IDF/result_all.xlsx
+++ b/data/TF-IDF/result_all.xlsx
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009097359817060786</v>
+        <v>0.0009097359817060787</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001445496167104675</v>
+        <v>0.001445496167104674</v>
       </c>
       <c r="D18" t="n">
         <v>0.5</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001431316570787742</v>
+        <v>0.001431316570787741</v>
       </c>
       <c r="D19" t="n">
         <v>0.5</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.816994658251535e-05</v>
+        <v>7.816994658251536e-05</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.002020290043919076</v>
+        <v>0.002020290043919075</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0003998977319705684</v>
+        <v>0.0003998977319705685</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.003112969082825377</v>
+        <v>0.003112969082825378</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0005649033701903714</v>
+        <v>0.0005649033701903713</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0005155779514640215</v>
+        <v>0.0005155779514640214</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405746</v>
+        <v>0.0005539660761405747</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001137238343274639</v>
+        <v>0.001137238343274638</v>
       </c>
       <c r="D120" t="n">
         <v>0.5</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009550446629658615</v>
+        <v>0.0009550446629658617</v>
       </c>
       <c r="D121" t="n">
         <v>0.5</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0007400873456976664</v>
+        <v>0.0007400873456976665</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580389</v>
+        <v>0.001178628110580388</v>
       </c>
       <c r="D146" t="n">
         <v>0.5</v>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0005368806875239458</v>
+        <v>0.0005368806875239459</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.001256158642993651</v>
+        <v>0.00125615864299365</v>
       </c>
       <c r="D185" t="n">
         <v>0.5</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.001562511849154044</v>
+        <v>0.001562511849154045</v>
       </c>
       <c r="D202" t="n">
         <v>0.5</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.0018606044734855</v>
+        <v>0.001860604473485499</v>
       </c>
       <c r="D213" t="n">
         <v>0.5</v>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001470508898221263</v>
+        <v>0.001470508898221264</v>
       </c>
       <c r="D215" t="n">
         <v>0.5</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.001111078500584515</v>
+        <v>0.001111078500584516</v>
       </c>
       <c r="D223" t="n">
         <v>0.5</v>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.0008571382493460673</v>
+        <v>0.0008571382493460674</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.003082617593899171</v>
+        <v>0.003082617593899172</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.002166541157013006</v>
+        <v>0.002166541157013005</v>
       </c>
       <c r="D254" t="n">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693305</v>
+        <v>0.0007838477203693307</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.001461045538704301</v>
+        <v>0.0014610455387043</v>
       </c>
       <c r="D296" t="n">
         <v>0.5</v>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.000931147259529926</v>
+        <v>0.0009311472595299261</v>
       </c>
       <c r="D317" t="n">
         <v>0.5</v>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.002198063057005059</v>
+        <v>0.002198063057005058</v>
       </c>
       <c r="D357" t="n">
         <v>1</v>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.0008388393904628876</v>
+        <v>0.0008388393904628878</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.0008333745113455982</v>
+        <v>0.0008333745113455984</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548231</v>
+        <v>0.001280866176548232</v>
       </c>
       <c r="D372" t="n">
         <v>0.5</v>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.0005512703550300337</v>
+        <v>0.0005512703550300338</v>
       </c>
       <c r="D385" t="n">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.0005585428441523774</v>
+        <v>0.0005585428441523775</v>
       </c>
       <c r="D386" t="n">
         <v>0</v>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.002298593047424964</v>
+        <v>0.002298593047424965</v>
       </c>
       <c r="D388" t="n">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>8.086062712184775e-05</v>
+        <v>8.086062712184776e-05</v>
       </c>
       <c r="D389" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.000736218867717932</v>
+        <v>0.0007362188677179321</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.001783021302593485</v>
+        <v>0.001783021302593484</v>
       </c>
       <c r="D419" t="n">
         <v>0.5</v>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.000630874272130377</v>
+        <v>0.0006308742721303768</v>
       </c>
       <c r="D427" t="n">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0006053509987598972</v>
+        <v>0.0006053509987598971</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.0005815488534040271</v>
+        <v>0.000581548853404027</v>
       </c>
       <c r="D429" t="n">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.002588462471217055</v>
+        <v>0.002588462471217056</v>
       </c>
       <c r="D439" t="n">
         <v>1</v>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.002008650971178718</v>
+        <v>0.002008650971178719</v>
       </c>
       <c r="D449" t="n">
         <v>1</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.000513173131893188</v>
+        <v>0.0005131731318931881</v>
       </c>
       <c r="D456" t="n">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.0003452107280363168</v>
+        <v>0.0003452107280363169</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.0007955697332072675</v>
+        <v>0.0007955697332072676</v>
       </c>
       <c r="D500" t="n">
         <v>0</v>
